--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,21 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1126,7 +1112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,10 +1123,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1359,7 +1345,9 @@
       <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1392,11 +1380,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1418,7 +1406,9 @@
       <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1451,11 +1441,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1477,7 +1467,9 @@
       <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1510,11 +1502,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1598,7 +1590,9 @@
       <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1631,11 +1625,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1657,7 +1651,9 @@
       <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1690,11 +1686,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1716,7 +1712,9 @@
       <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1749,11 +1747,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1836,7 +1834,9 @@
       <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1869,11 +1869,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1895,7 +1895,9 @@
       <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1924,7 +1926,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
@@ -1932,7 +1934,7 @@
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -1954,7 +1956,9 @@
       <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1987,11 +1991,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2013,7 +2017,9 @@
       <c r="F15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2042,15 +2048,15 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI15" s="30">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI15" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2072,7 +2078,9 @@
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -2105,11 +2113,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2131,7 +2139,9 @@
       <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2160,15 +2170,15 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI17" s="30">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI17" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2312,7 +2322,9 @@
       <c r="F20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2345,11 +2357,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2432,7 +2444,9 @@
       <c r="F22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2465,11 +2479,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2491,7 +2505,9 @@
       <c r="F23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2524,11 +2540,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2550,7 +2566,9 @@
       <c r="F24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2583,11 +2601,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2609,7 +2627,9 @@
       <c r="F25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -2642,11 +2662,11 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -2668,7 +2688,9 @@
       <c r="F26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2697,7 +2719,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -2705,7 +2727,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -2727,7 +2749,9 @@
       <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2756,15 +2780,15 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI27" s="30">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI27" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -2847,7 +2871,9 @@
       <c r="F29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2876,7 +2902,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -2884,7 +2910,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -2906,7 +2932,9 @@
       <c r="F30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2935,15 +2963,15 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI30" s="30">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI30" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -2965,7 +2993,9 @@
       <c r="F31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2998,11 +3028,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3024,7 +3054,9 @@
       <c r="F32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -3057,11 +3089,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3083,7 +3115,9 @@
       <c r="F33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -3112,7 +3146,7 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
@@ -3120,7 +3154,7 @@
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3142,7 +3176,9 @@
       <c r="F34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -3171,15 +3207,15 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="28">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI34" s="30">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI34" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3201,7 +3237,9 @@
       <c r="F35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -3230,7 +3268,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
@@ -3238,7 +3276,7 @@
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3260,7 +3298,9 @@
       <c r="F36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -3293,11 +3333,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3319,7 +3359,9 @@
       <c r="F37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -3352,11 +3394,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3378,7 +3420,9 @@
       <c r="F38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -3411,11 +3455,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3437,7 +3481,9 @@
       <c r="F39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -3466,7 +3512,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -3474,7 +3520,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3496,7 +3542,9 @@
       <c r="F40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -3525,7 +3573,7 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
@@ -3533,7 +3581,7 @@
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3555,7 +3603,9 @@
       <c r="F41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3588,11 +3638,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -3675,7 +3725,9 @@
       <c r="F43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -3704,7 +3756,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -3712,7 +3764,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -3734,7 +3786,9 @@
       <c r="F44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3767,11 +3821,11 @@
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -3793,7 +3847,9 @@
       <c r="F45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -3826,11 +3882,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -3852,7 +3908,9 @@
       <c r="F46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -3881,7 +3939,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -3889,7 +3947,7 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4024,7 +4082,9 @@
       <c r="F48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -4057,11 +4117,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4083,7 +4143,9 @@
       <c r="F49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4116,11 +4178,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4142,7 +4204,9 @@
       <c r="F50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -4171,7 +4235,7 @@
       <c r="AG50" s="8"/>
       <c r="AH50" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
@@ -4179,7 +4243,7 @@
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4201,7 +4265,9 @@
       <c r="F51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -4230,7 +4296,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -4238,7 +4304,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4260,7 +4326,9 @@
       <c r="F52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -4289,7 +4357,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -4297,7 +4365,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4380,7 +4448,9 @@
       <c r="F54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
@@ -4413,11 +4483,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -4470,12 +4540,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7207,7 +7277,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9994,12 +10064,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,42 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1112,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1122,11 +1087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1348,8 +1313,12 @@
       <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1380,11 +1349,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1409,8 +1378,12 @@
       <c r="G5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1437,15 +1410,15 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1470,8 +1443,12 @@
       <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1502,11 +1479,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1532,8 +1509,12 @@
       <c r="G7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1564,11 +1545,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1593,8 +1574,12 @@
       <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1625,11 +1610,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1654,8 +1639,12 @@
       <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1686,11 +1675,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1715,8 +1704,12 @@
       <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1747,11 +1740,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1776,8 +1769,12 @@
       <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1804,15 +1801,15 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1837,8 +1834,12 @@
       <c r="G12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1869,11 +1870,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1898,8 +1899,12 @@
       <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1926,15 +1931,15 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -1959,8 +1964,12 @@
       <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1987,7 +1996,7 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
@@ -1995,7 +2004,7 @@
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2020,8 +2029,12 @@
       <c r="G15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2052,11 +2065,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2081,8 +2094,12 @@
       <c r="G16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2113,11 +2130,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2142,8 +2159,12 @@
       <c r="G17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -2170,15 +2191,15 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI17" s="30">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI17" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2203,8 +2224,12 @@
       <c r="G18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2235,11 +2260,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2264,8 +2289,12 @@
       <c r="G19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2292,15 +2321,15 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2325,8 +2354,12 @@
       <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2357,11 +2390,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2386,8 +2419,12 @@
       <c r="G21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2418,11 +2455,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2447,8 +2484,12 @@
       <c r="G22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2475,7 +2516,7 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
@@ -2483,7 +2524,7 @@
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2508,8 +2549,12 @@
       <c r="G23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2540,11 +2585,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2569,8 +2614,12 @@
       <c r="G24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2601,11 +2650,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2630,8 +2679,12 @@
       <c r="G25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2658,7 +2711,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -2666,7 +2719,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -2691,8 +2744,12 @@
       <c r="G26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2719,7 +2776,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -2727,7 +2784,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -2752,8 +2809,12 @@
       <c r="G27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2780,15 +2841,15 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI27" s="30">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI27" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -2813,8 +2874,12 @@
       <c r="G28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2845,11 +2910,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -2874,8 +2939,12 @@
       <c r="G29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2906,11 +2975,11 @@
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -2935,8 +3004,12 @@
       <c r="G30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2963,7 +3036,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -2971,7 +3044,7 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -2996,8 +3069,12 @@
       <c r="G31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -3024,15 +3101,15 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3057,8 +3134,12 @@
       <c r="G32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -3089,11 +3170,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3118,8 +3199,12 @@
       <c r="G33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -3146,15 +3231,15 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3179,8 +3264,12 @@
       <c r="G34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3207,15 +3296,15 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI34" s="30">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI34" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3240,8 +3329,12 @@
       <c r="G35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3272,11 +3365,11 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3301,8 +3394,12 @@
       <c r="G36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -3329,7 +3426,7 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -3337,7 +3434,7 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3362,8 +3459,12 @@
       <c r="G37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -3394,11 +3495,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3423,8 +3524,12 @@
       <c r="G38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -3455,11 +3560,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3484,8 +3589,12 @@
       <c r="G39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -3512,15 +3621,15 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3545,8 +3654,12 @@
       <c r="G40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -3577,11 +3690,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3606,8 +3719,12 @@
       <c r="G41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -3638,11 +3755,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -3667,8 +3784,12 @@
       <c r="G42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -3699,11 +3820,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -3728,8 +3849,12 @@
       <c r="G43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3756,7 +3881,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -3764,7 +3889,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -3789,8 +3914,12 @@
       <c r="G44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -3817,15 +3946,15 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -3850,8 +3979,12 @@
       <c r="G45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -3882,11 +4015,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -3911,8 +4044,12 @@
       <c r="G46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -3939,15 +4076,15 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4085,8 +4222,12 @@
       <c r="G48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -4117,11 +4258,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4146,8 +4287,12 @@
       <c r="G49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -4178,11 +4323,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4207,8 +4352,12 @@
       <c r="G50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -4235,7 +4384,7 @@
       <c r="AG50" s="8"/>
       <c r="AH50" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
@@ -4243,7 +4392,7 @@
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4268,8 +4417,12 @@
       <c r="G51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -4296,15 +4449,15 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4329,8 +4482,12 @@
       <c r="G52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -4361,11 +4518,11 @@
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4390,8 +4547,12 @@
       <c r="G53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -4422,11 +4583,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -4451,8 +4612,12 @@
       <c r="G54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="H54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
@@ -4483,11 +4648,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -4540,12 +4705,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7277,7 +7442,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10064,12 +10229,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,11 +1087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1384,7 +1384,9 @@
       <c r="I5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -1414,11 +1416,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1515,7 +1517,9 @@
       <c r="I7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1545,11 +1549,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2230,7 +2234,9 @@
       <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -2260,11 +2266,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2425,7 +2431,9 @@
       <c r="I21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -2455,11 +2463,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2620,7 +2628,9 @@
       <c r="I24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2650,11 +2660,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2880,7 +2890,9 @@
       <c r="I28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -2910,11 +2922,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3400,7 +3412,9 @@
       <c r="I36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -3430,11 +3444,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3790,7 +3804,9 @@
       <c r="I42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -3820,11 +3836,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4358,7 +4374,9 @@
       <c r="I50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J50" s="7"/>
+      <c r="J50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -4388,11 +4406,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4553,7 +4571,9 @@
       <c r="I53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -4583,11 +4603,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,28 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1077,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,10 +1109,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1319,7 +1340,9 @@
       <c r="I4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1349,11 +1372,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1451,7 +1474,9 @@
       <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1481,11 +1506,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1520,7 +1545,9 @@
       <c r="J7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1549,11 +1576,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1584,7 +1611,9 @@
       <c r="I8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1614,11 +1643,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1649,7 +1678,9 @@
       <c r="I9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1679,11 +1710,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1714,7 +1745,9 @@
       <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1744,11 +1777,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1779,7 +1812,9 @@
       <c r="I11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1805,7 +1840,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
@@ -1813,7 +1848,7 @@
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1844,7 +1879,9 @@
       <c r="I12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1870,7 +1907,7 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
@@ -1878,7 +1915,7 @@
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1909,7 +1946,9 @@
       <c r="I13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1939,11 +1978,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -1974,7 +2013,9 @@
       <c r="I14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2004,11 +2045,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2039,7 +2080,9 @@
       <c r="I15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2065,7 +2108,7 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
@@ -2073,7 +2116,7 @@
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2104,7 +2147,9 @@
       <c r="I16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2134,11 +2179,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2169,7 +2214,9 @@
       <c r="I17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -2199,11 +2246,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2301,7 +2348,9 @@
       <c r="I19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -2327,7 +2376,7 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -2335,7 +2384,7 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2366,7 +2415,9 @@
       <c r="I20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -2396,11 +2447,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2434,7 +2485,9 @@
       <c r="J21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -2463,11 +2516,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2498,7 +2551,9 @@
       <c r="I22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -2528,11 +2583,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2563,7 +2618,9 @@
       <c r="I23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -2593,11 +2650,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2695,8 +2752,12 @@
       <c r="I25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2721,15 +2782,15 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -2760,7 +2821,9 @@
       <c r="I26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -2786,7 +2849,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -2794,7 +2857,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -2825,7 +2888,9 @@
       <c r="I27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -2851,7 +2916,7 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -2859,7 +2924,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -2893,7 +2958,9 @@
       <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2922,11 +2989,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -2957,7 +3024,9 @@
       <c r="I29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -2983,7 +3052,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -2991,7 +3060,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3022,7 +3091,9 @@
       <c r="I30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -3052,11 +3123,11 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3087,7 +3158,9 @@
       <c r="I31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -3113,7 +3186,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3121,7 +3194,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3152,7 +3225,9 @@
       <c r="I32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -3182,11 +3257,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3217,7 +3292,9 @@
       <c r="I33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -3247,11 +3324,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3282,7 +3359,9 @@
       <c r="I34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -3312,11 +3391,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3347,7 +3426,9 @@
       <c r="I35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -3373,7 +3454,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
@@ -3381,7 +3462,7 @@
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3479,7 +3560,9 @@
       <c r="I37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -3509,11 +3592,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3544,7 +3627,9 @@
       <c r="I38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -3574,11 +3659,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3609,7 +3694,9 @@
       <c r="I39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -3635,7 +3722,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -3643,7 +3730,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3674,7 +3761,9 @@
       <c r="I40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -3700,7 +3789,7 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
@@ -3708,7 +3797,7 @@
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3739,7 +3828,9 @@
       <c r="I41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -3765,7 +3856,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
@@ -3773,7 +3864,7 @@
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -3807,7 +3898,9 @@
       <c r="J42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -3836,11 +3929,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -3871,7 +3964,9 @@
       <c r="I43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -3897,7 +3992,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -3905,7 +4000,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -3936,7 +4031,9 @@
       <c r="I44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -3962,7 +4059,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -3970,7 +4067,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4001,8 +4098,12 @@
       <c r="I45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -4031,11 +4132,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4066,7 +4167,9 @@
       <c r="I46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -4092,7 +4195,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -4100,7 +4203,7 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4244,8 +4347,12 @@
       <c r="I48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -4274,11 +4381,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4309,7 +4416,9 @@
       <c r="I49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -4335,7 +4444,7 @@
       <c r="AG49" s="8"/>
       <c r="AH49" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
@@ -4343,7 +4452,7 @@
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4377,7 +4486,9 @@
       <c r="J50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -4406,11 +4517,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4441,7 +4552,9 @@
       <c r="I51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="7"/>
+      <c r="J51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -4467,7 +4580,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -4475,7 +4588,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4506,7 +4619,9 @@
       <c r="I52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -4536,11 +4651,11 @@
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4574,7 +4689,9 @@
       <c r="J53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -4603,11 +4720,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -4638,7 +4755,9 @@
       <c r="I54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -4668,11 +4787,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -4725,12 +4844,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7462,7 +7581,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10249,12 +10368,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,14 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1098,7 +1105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,10 +1116,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1343,7 +1350,9 @@
       <c r="J4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1372,11 +1381,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1410,8 +1419,12 @@
       <c r="J5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1435,15 +1448,15 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1477,7 +1490,9 @@
       <c r="J6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1506,11 +1521,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1614,8 +1629,12 @@
       <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1643,11 +1662,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1681,7 +1700,9 @@
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1710,11 +1731,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1748,8 +1769,12 @@
       <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1777,11 +1802,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1815,7 +1840,9 @@
       <c r="J11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1844,11 +1871,11 @@
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1882,7 +1909,9 @@
       <c r="J12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1907,7 +1936,7 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
@@ -1915,7 +1944,7 @@
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1949,7 +1978,9 @@
       <c r="J13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1978,11 +2009,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2016,7 +2047,9 @@
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2041,7 +2074,7 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
@@ -2049,7 +2082,7 @@
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2083,7 +2116,9 @@
       <c r="J15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2108,15 +2143,15 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI15" s="30">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI15" s="30">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2150,7 +2185,9 @@
       <c r="J16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -2179,11 +2216,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2217,7 +2254,9 @@
       <c r="J17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -2242,15 +2281,15 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI17" s="30">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI17" s="30">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2284,7 +2323,9 @@
       <c r="J18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -2309,7 +2350,7 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
@@ -2317,7 +2358,7 @@
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2351,7 +2392,9 @@
       <c r="J19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -2376,7 +2419,7 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -2384,7 +2427,7 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2418,7 +2461,9 @@
       <c r="J20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -2447,11 +2492,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2488,7 +2533,9 @@
       <c r="K21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2516,11 +2563,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2554,7 +2601,9 @@
       <c r="J22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -2579,15 +2628,15 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="28">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI22" s="30">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI22" s="30">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2621,7 +2670,9 @@
       <c r="J23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2650,11 +2701,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2688,7 +2739,9 @@
       <c r="J24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2717,11 +2770,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2824,7 +2877,9 @@
       <c r="J26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2849,7 +2904,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -2857,7 +2912,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -2891,7 +2946,9 @@
       <c r="J27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2916,7 +2973,7 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -2924,7 +2981,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -2961,7 +3018,9 @@
       <c r="K28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2989,11 +3048,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3027,7 +3086,9 @@
       <c r="J29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -3052,7 +3113,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -3060,7 +3121,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3094,7 +3155,9 @@
       <c r="J30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -3123,11 +3186,11 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3161,7 +3224,9 @@
       <c r="J31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -3186,7 +3251,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3194,7 +3259,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3228,7 +3293,9 @@
       <c r="J32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -3257,11 +3324,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3295,8 +3362,12 @@
       <c r="J33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -3320,15 +3391,15 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3362,7 +3433,9 @@
       <c r="J34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -3391,11 +3464,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3429,7 +3502,9 @@
       <c r="J35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -3454,7 +3529,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
@@ -3462,7 +3537,7 @@
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3496,7 +3571,9 @@
       <c r="J36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -3521,7 +3598,7 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -3529,7 +3606,7 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3563,7 +3640,9 @@
       <c r="J37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -3592,11 +3671,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3630,7 +3709,9 @@
       <c r="J38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -3659,11 +3740,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3697,7 +3778,9 @@
       <c r="J39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -3722,7 +3805,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -3730,7 +3813,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3764,7 +3847,9 @@
       <c r="J40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -3793,11 +3878,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3831,7 +3916,9 @@
       <c r="J41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -3856,7 +3943,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
@@ -3864,7 +3951,7 @@
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -3901,7 +3988,9 @@
       <c r="K42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="7"/>
+      <c r="L42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -3929,11 +4018,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -3967,7 +4056,9 @@
       <c r="J43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -3992,7 +4083,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -4000,7 +4091,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4034,7 +4125,9 @@
       <c r="J44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -4059,7 +4152,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -4067,7 +4160,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4104,7 +4197,9 @@
       <c r="K45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -4132,11 +4227,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4170,7 +4265,9 @@
       <c r="J46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -4195,7 +4292,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -4203,7 +4300,7 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4353,7 +4450,9 @@
       <c r="K48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="7"/>
+      <c r="L48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -4381,11 +4480,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4419,8 +4518,12 @@
       <c r="J49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -4448,11 +4551,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4489,7 +4592,9 @@
       <c r="K50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -4517,11 +4622,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4555,7 +4660,9 @@
       <c r="J51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -4580,7 +4687,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -4588,7 +4695,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4622,7 +4729,9 @@
       <c r="J52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -4647,7 +4756,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -4655,7 +4764,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4692,7 +4801,9 @@
       <c r="K53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L53" s="7"/>
+      <c r="L53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -4720,11 +4831,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -4758,7 +4869,9 @@
       <c r="J54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K54" s="25"/>
+      <c r="K54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
@@ -4787,11 +4900,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -4844,12 +4957,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7581,7 +7694,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10368,12 +10481,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,35 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1105,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1116,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1353,7 +1325,9 @@
       <c r="K4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1381,11 +1355,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1425,7 +1399,9 @@
       <c r="L5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1452,11 +1428,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1493,7 +1469,9 @@
       <c r="K6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1521,11 +1499,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1563,7 +1541,9 @@
       <c r="K7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1591,11 +1571,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1703,7 +1683,9 @@
       <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1731,11 +1713,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1843,7 +1825,9 @@
       <c r="K11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1867,7 +1851,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
@@ -1875,7 +1859,7 @@
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1912,7 +1896,9 @@
       <c r="K12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1936,7 +1922,7 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
@@ -1944,7 +1930,7 @@
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1981,7 +1967,9 @@
       <c r="K13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -2009,11 +1997,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2050,7 +2038,9 @@
       <c r="K14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2074,7 +2064,7 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
@@ -2082,7 +2072,7 @@
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2119,7 +2109,9 @@
       <c r="K15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2147,11 +2139,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2188,7 +2180,9 @@
       <c r="K16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2216,11 +2210,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2257,7 +2251,9 @@
       <c r="K17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2285,11 +2281,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2326,7 +2322,9 @@
       <c r="K18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2350,7 +2348,7 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
@@ -2358,7 +2356,7 @@
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2395,7 +2393,9 @@
       <c r="K19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2464,7 +2464,9 @@
       <c r="K20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2492,11 +2494,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2536,7 +2538,9 @@
       <c r="L21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -2563,11 +2567,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2604,8 +2608,12 @@
       <c r="K22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -2628,15 +2636,15 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="28">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI22" s="30">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI22" s="30">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2673,7 +2681,9 @@
       <c r="K23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2701,11 +2711,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2742,7 +2752,9 @@
       <c r="K24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2770,11 +2782,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2811,7 +2823,9 @@
       <c r="K25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2835,7 +2849,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -2843,7 +2857,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -2880,7 +2894,9 @@
       <c r="K26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2904,7 +2920,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -2912,7 +2928,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -2949,8 +2965,12 @@
       <c r="K27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2973,15 +2993,15 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3021,7 +3041,9 @@
       <c r="L28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3048,11 +3070,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3089,7 +3111,9 @@
       <c r="K29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -3113,7 +3137,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -3121,7 +3145,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3158,7 +3182,9 @@
       <c r="K30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -3182,7 +3208,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -3190,7 +3216,7 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3227,7 +3253,9 @@
       <c r="K31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -3251,7 +3279,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3259,7 +3287,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3296,7 +3324,9 @@
       <c r="K32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -3324,11 +3354,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3436,7 +3466,9 @@
       <c r="K34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -3464,11 +3496,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3505,7 +3537,9 @@
       <c r="K35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -3529,7 +3563,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
@@ -3537,7 +3571,7 @@
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3574,7 +3608,9 @@
       <c r="K36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -3602,11 +3638,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3643,7 +3679,9 @@
       <c r="K37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -3671,11 +3709,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3712,7 +3750,9 @@
       <c r="K38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -3740,11 +3780,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3781,7 +3821,9 @@
       <c r="K39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -3805,7 +3847,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -3813,7 +3855,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3850,7 +3892,9 @@
       <c r="K40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -3878,11 +3922,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3919,7 +3963,9 @@
       <c r="K41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -3947,11 +3993,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -3991,7 +4037,9 @@
       <c r="L42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -4018,11 +4066,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4059,7 +4107,9 @@
       <c r="K43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L43" s="7"/>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -4083,7 +4133,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -4091,7 +4141,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4128,7 +4178,9 @@
       <c r="K44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -4152,7 +4204,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -4160,7 +4212,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4268,7 +4320,9 @@
       <c r="K46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -4296,11 +4350,11 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4524,7 +4578,9 @@
       <c r="L49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="7"/>
+      <c r="M49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
@@ -4551,11 +4607,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4595,7 +4651,9 @@
       <c r="L50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M50" s="7"/>
+      <c r="M50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -4622,11 +4680,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4663,7 +4721,9 @@
       <c r="K51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -4687,7 +4747,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -4695,7 +4755,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4732,7 +4792,9 @@
       <c r="K52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -4756,7 +4818,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -4764,7 +4826,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4804,7 +4866,9 @@
       <c r="L53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="7"/>
+      <c r="M53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -4831,11 +4895,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -4872,7 +4936,9 @@
       <c r="K54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L54" s="25"/>
+      <c r="L54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
@@ -4900,11 +4966,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -4957,12 +5023,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7694,7 +7760,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10481,12 +10547,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -1088,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M54" sqref="M54"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1328,7 +1328,9 @@
       <c r="L4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1355,11 +1357,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1402,7 +1404,9 @@
       <c r="M5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1428,11 +1432,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1472,7 +1476,9 @@
       <c r="L6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1495,7 +1501,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
@@ -1503,7 +1509,7 @@
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1544,7 +1550,9 @@
       <c r="L7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1571,11 +1579,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1615,7 +1623,9 @@
       <c r="L8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1642,11 +1652,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1686,7 +1696,9 @@
       <c r="L9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1713,11 +1725,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1757,7 +1769,9 @@
       <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1784,11 +1798,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1828,7 +1842,9 @@
       <c r="L11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1851,15 +1867,15 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI11" s="30">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI11" s="30">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1899,7 +1915,9 @@
       <c r="L12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1922,7 +1940,7 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
@@ -1930,7 +1948,7 @@
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1970,7 +1988,9 @@
       <c r="L13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1993,7 +2013,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
@@ -2001,7 +2021,7 @@
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2041,7 +2061,9 @@
       <c r="L14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -2068,11 +2090,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2112,7 +2134,9 @@
       <c r="L15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -2135,15 +2159,15 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI15" s="30">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI15" s="30">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2183,7 +2207,9 @@
       <c r="L16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -2206,7 +2232,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
@@ -2214,7 +2240,7 @@
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2254,7 +2280,9 @@
       <c r="L17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -2281,11 +2309,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2325,7 +2353,9 @@
       <c r="L18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -2352,11 +2382,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2396,7 +2426,9 @@
       <c r="L19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -2419,7 +2451,7 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -2427,7 +2459,7 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2467,7 +2499,9 @@
       <c r="L20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -2494,11 +2528,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2541,7 +2575,9 @@
       <c r="M21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2567,11 +2603,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2614,7 +2650,9 @@
       <c r="M22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -2640,11 +2678,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2684,7 +2722,9 @@
       <c r="L23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2711,11 +2751,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2755,7 +2795,9 @@
       <c r="L24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2782,11 +2824,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2826,7 +2868,9 @@
       <c r="L25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2853,11 +2897,11 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -2897,7 +2941,9 @@
       <c r="L26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2920,7 +2966,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -2928,7 +2974,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -2971,7 +3017,9 @@
       <c r="M27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2997,11 +3045,11 @@
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3044,7 +3092,9 @@
       <c r="M28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -3070,11 +3120,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3114,7 +3164,9 @@
       <c r="L29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -3137,15 +3189,15 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI29" s="30">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI29" s="30">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3185,7 +3237,9 @@
       <c r="L30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -3208,7 +3262,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -3216,7 +3270,7 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3256,7 +3310,9 @@
       <c r="L31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -3283,11 +3339,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3327,8 +3383,12 @@
       <c r="L32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="M32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -3354,11 +3414,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3398,7 +3458,9 @@
       <c r="L33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -3421,7 +3483,7 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
@@ -3429,7 +3491,7 @@
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3469,7 +3531,9 @@
       <c r="L34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -3492,7 +3556,7 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
@@ -3500,7 +3564,7 @@
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3540,7 +3604,9 @@
       <c r="L35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M35" s="7"/>
+      <c r="M35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -3563,7 +3629,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
@@ -3571,7 +3637,7 @@
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3611,7 +3677,9 @@
       <c r="L36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -3638,11 +3706,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3682,7 +3750,9 @@
       <c r="L37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -3709,11 +3779,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3753,7 +3823,9 @@
       <c r="L38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -3780,11 +3852,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3824,7 +3896,9 @@
       <c r="L39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="7"/>
+      <c r="M39" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -3851,11 +3925,11 @@
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3895,7 +3969,9 @@
       <c r="L40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="7"/>
+      <c r="M40" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -3918,7 +3994,7 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
@@ -3926,7 +4002,7 @@
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3966,7 +4042,9 @@
       <c r="L41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="7"/>
+      <c r="M41" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -3989,7 +4067,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
@@ -3997,7 +4075,7 @@
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4040,7 +4118,9 @@
       <c r="M42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -4066,11 +4146,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4110,7 +4190,9 @@
       <c r="L43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4133,7 +4215,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -4141,7 +4223,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4181,7 +4263,9 @@
       <c r="L44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -4204,7 +4288,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -4212,7 +4296,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4252,7 +4336,9 @@
       <c r="L45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M45" s="7"/>
+      <c r="M45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -4279,11 +4365,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4323,7 +4409,9 @@
       <c r="L46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -4346,7 +4434,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -4354,7 +4442,7 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4507,8 +4595,12 @@
       <c r="L48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="M48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -4534,11 +4626,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4581,7 +4673,9 @@
       <c r="M49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -4607,11 +4701,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4654,7 +4748,9 @@
       <c r="M50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N50" s="7"/>
+      <c r="N50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -4680,11 +4776,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4724,7 +4820,9 @@
       <c r="L51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M51" s="7"/>
+      <c r="M51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -4747,7 +4845,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -4755,7 +4853,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4795,8 +4893,12 @@
       <c r="L52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="M52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -4822,11 +4924,11 @@
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4869,7 +4971,9 @@
       <c r="M53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -4895,11 +4999,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -4939,7 +5043,9 @@
       <c r="L54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="M54" s="25"/>
+      <c r="M54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
@@ -4966,11 +5072,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:36">

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1331,9 +1331,15 @@
       <c r="M4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -1357,11 +1363,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1407,8 +1413,12 @@
       <c r="N5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -1432,11 +1442,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1479,9 +1489,15 @@
       <c r="M6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -1505,11 +1521,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1553,9 +1569,15 @@
       <c r="M7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -1579,11 +1601,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1626,9 +1648,15 @@
       <c r="M8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -1652,11 +1680,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1699,9 +1727,15 @@
       <c r="M9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1725,11 +1759,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1772,9 +1806,15 @@
       <c r="M10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1798,11 +1838,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1845,9 +1885,15 @@
       <c r="M11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -1867,15 +1913,15 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI11" s="30">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI11" s="30">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1918,9 +1964,15 @@
       <c r="M12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -1940,15 +1992,15 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1991,9 +2043,15 @@
       <c r="M13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -2013,15 +2071,15 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2064,9 +2122,15 @@
       <c r="M14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -2090,11 +2154,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2137,9 +2201,15 @@
       <c r="M15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2159,15 +2229,15 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2210,9 +2280,15 @@
       <c r="M16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -2232,15 +2308,15 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2283,9 +2359,15 @@
       <c r="M17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -2309,11 +2391,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2356,9 +2438,15 @@
       <c r="M18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -2378,15 +2466,15 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2429,9 +2517,15 @@
       <c r="M19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2455,11 +2549,11 @@
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2502,9 +2596,15 @@
       <c r="M20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2528,11 +2628,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2578,8 +2678,12 @@
       <c r="N21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -2603,11 +2707,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2653,8 +2757,12 @@
       <c r="N22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2678,11 +2786,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2725,9 +2833,15 @@
       <c r="M23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -2751,11 +2865,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2798,9 +2912,15 @@
       <c r="M24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -2824,11 +2944,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2871,9 +2991,15 @@
       <c r="M25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2893,15 +3019,15 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -2944,9 +3070,15 @@
       <c r="M26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2966,15 +3098,15 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3020,8 +3152,12 @@
       <c r="N27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -3045,11 +3181,11 @@
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3095,8 +3231,12 @@
       <c r="N28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -3120,11 +3260,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3167,9 +3307,15 @@
       <c r="M29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -3189,15 +3335,15 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI29" s="30">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI29" s="30">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3240,9 +3386,15 @@
       <c r="M30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -3262,15 +3414,15 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3313,9 +3465,15 @@
       <c r="M31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -3335,15 +3493,15 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3389,8 +3547,12 @@
       <c r="N32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="O32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -3414,11 +3576,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3461,9 +3623,15 @@
       <c r="M33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="N33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -3483,15 +3651,15 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3534,9 +3702,15 @@
       <c r="M34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="N34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -3556,15 +3730,15 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3607,9 +3781,15 @@
       <c r="M35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="N35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -3629,15 +3809,15 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3680,9 +3860,15 @@
       <c r="M36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="N36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -3702,15 +3888,15 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3753,9 +3939,15 @@
       <c r="M37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
+      <c r="N37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -3779,11 +3971,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3826,9 +4018,15 @@
       <c r="M38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -3852,11 +4050,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3899,9 +4097,15 @@
       <c r="M39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -3921,15 +4125,15 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3972,9 +4176,15 @@
       <c r="M40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -3994,15 +4204,15 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4045,9 +4255,15 @@
       <c r="M41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="N41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -4071,11 +4287,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4121,8 +4337,12 @@
       <c r="N42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="O42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -4146,11 +4366,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4193,9 +4413,15 @@
       <c r="M43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="N43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -4215,7 +4441,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -4223,7 +4449,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4266,9 +4492,15 @@
       <c r="M44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
+      <c r="N44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -4288,15 +4520,15 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4339,9 +4571,15 @@
       <c r="M45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
+      <c r="N45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -4361,15 +4599,15 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4412,9 +4650,15 @@
       <c r="M46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
+      <c r="N46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -4434,15 +4678,15 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4601,8 +4845,12 @@
       <c r="N48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+      <c r="O48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -4626,11 +4874,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4676,8 +4924,12 @@
       <c r="N49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
+      <c r="O49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -4697,15 +4949,15 @@
       <c r="AG49" s="8"/>
       <c r="AH49" s="28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -4751,8 +5003,12 @@
       <c r="N50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
+      <c r="O50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -4776,11 +5032,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -4823,9 +5079,15 @@
       <c r="M51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
+      <c r="N51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
@@ -4845,15 +5107,15 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -4899,8 +5161,12 @@
       <c r="N52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
+      <c r="O52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -4920,7 +5186,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -4928,7 +5194,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -4974,8 +5240,12 @@
       <c r="N53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
+      <c r="O53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
@@ -4999,11 +5269,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -5046,9 +5316,15 @@
       <c r="M54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
+      <c r="N54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
@@ -5072,11 +5348,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:36">

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
+      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1419,7 +1419,9 @@
       <c r="P5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1442,11 +1444,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1578,7 +1580,9 @@
       <c r="P7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1601,11 +1605,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1657,7 +1661,9 @@
       <c r="P8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1680,11 +1686,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2447,7 +2453,9 @@
       <c r="P18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2470,11 +2478,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2684,7 +2692,9 @@
       <c r="P21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2707,11 +2717,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3237,7 +3247,9 @@
       <c r="P28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3260,11 +3272,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3869,7 +3881,9 @@
       <c r="P36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q36" s="7"/>
+      <c r="Q36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
@@ -3892,11 +3906,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3948,7 +3962,9 @@
       <c r="P37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -3971,11 +3987,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4343,7 +4359,9 @@
       <c r="P42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q42" s="7"/>
+      <c r="Q42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -4366,11 +4384,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5009,7 +5027,9 @@
       <c r="P50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q50" s="7"/>
+      <c r="Q50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -5032,11 +5052,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5246,7 +5266,9 @@
       <c r="P53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q53" s="7"/>
+      <c r="Q53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -5269,11 +5291,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,42 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1088,10 +1123,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1340,8 +1375,12 @@
       <c r="P4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -1363,11 +1402,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1422,7 +1461,9 @@
       <c r="Q5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1444,11 +1485,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1500,8 +1541,12 @@
       <c r="P6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -1523,11 +1568,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1583,7 +1628,9 @@
       <c r="Q7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1605,11 +1652,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1664,7 +1711,9 @@
       <c r="Q8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -1686,11 +1735,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1742,8 +1791,12 @@
       <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1765,11 +1818,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1821,8 +1874,12 @@
       <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -1844,11 +1901,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1900,8 +1957,12 @@
       <c r="P11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1919,15 +1980,15 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1979,8 +2040,12 @@
       <c r="P12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -2002,11 +2067,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2058,8 +2123,12 @@
       <c r="P13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -2077,7 +2146,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
@@ -2085,7 +2154,7 @@
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2137,8 +2206,12 @@
       <c r="P14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -2160,11 +2233,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2216,8 +2289,12 @@
       <c r="P15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="Q15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2235,7 +2312,7 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
@@ -2243,7 +2320,7 @@
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2295,8 +2372,12 @@
       <c r="P16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="Q16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2318,11 +2399,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2374,8 +2455,12 @@
       <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -2393,15 +2478,15 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2454,9 +2539,11 @@
         <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -2474,15 +2561,15 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2534,8 +2621,12 @@
       <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2553,15 +2644,15 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2613,8 +2704,12 @@
       <c r="P20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -2636,11 +2731,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2695,7 +2790,9 @@
       <c r="Q21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R21" s="7"/>
+      <c r="R21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -2717,11 +2814,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2773,8 +2870,12 @@
       <c r="P22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="Q22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -2796,11 +2897,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2852,8 +2953,12 @@
       <c r="P23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2875,11 +2980,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2931,8 +3036,12 @@
       <c r="P24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -2954,11 +3063,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3010,8 +3119,12 @@
       <c r="P25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="Q25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -3029,7 +3142,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -3037,7 +3150,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3089,8 +3202,12 @@
       <c r="P26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -3108,7 +3225,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -3116,7 +3233,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3168,8 +3285,12 @@
       <c r="P27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="Q27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -3187,15 +3308,15 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3250,7 +3371,9 @@
       <c r="Q28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -3272,11 +3395,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3328,8 +3451,12 @@
       <c r="P29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="Q29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -3347,7 +3474,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -3355,7 +3482,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3407,8 +3534,12 @@
       <c r="P30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="Q30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -3426,7 +3557,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -3434,7 +3565,7 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3486,8 +3617,12 @@
       <c r="P31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="Q31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -3505,7 +3640,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3513,7 +3648,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3565,8 +3700,12 @@
       <c r="P32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="Q32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -3588,11 +3727,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3644,8 +3783,12 @@
       <c r="P33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="Q33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -3667,11 +3810,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3723,8 +3866,12 @@
       <c r="P34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="Q34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -3746,11 +3893,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3802,8 +3949,12 @@
       <c r="P35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="Q35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -3821,15 +3972,15 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -3884,7 +4035,9 @@
       <c r="Q36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R36" s="7"/>
+      <c r="R36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -3906,11 +4059,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3965,7 +4118,9 @@
       <c r="Q37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R37" s="7"/>
+      <c r="R37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -3987,11 +4142,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4043,8 +4198,12 @@
       <c r="P38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+      <c r="Q38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -4066,11 +4225,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4122,8 +4281,12 @@
       <c r="P39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -4141,7 +4304,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -4149,7 +4312,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4201,8 +4364,12 @@
       <c r="P40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="Q40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -4224,11 +4391,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4280,8 +4447,12 @@
       <c r="P41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
+      <c r="Q41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -4303,11 +4474,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4362,7 +4533,9 @@
       <c r="Q42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R42" s="7"/>
+      <c r="R42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -4384,11 +4557,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4440,8 +4613,12 @@
       <c r="P43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
+      <c r="Q43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -4463,11 +4640,11 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4519,8 +4696,12 @@
       <c r="P44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -4538,7 +4719,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -4546,7 +4727,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4598,8 +4779,12 @@
       <c r="P45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
+      <c r="Q45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -4621,11 +4806,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4677,8 +4862,12 @@
       <c r="P46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
+      <c r="Q46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -4696,7 +4885,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -4704,7 +4893,7 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4869,8 +5058,12 @@
       <c r="P48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
+      <c r="Q48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -4892,11 +5085,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -4948,8 +5141,12 @@
       <c r="P49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="Q49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -4971,11 +5168,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5030,7 +5227,9 @@
       <c r="Q50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R50" s="7"/>
+      <c r="R50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -5052,11 +5251,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5108,8 +5307,12 @@
       <c r="P51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
+      <c r="Q51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5127,15 +5330,15 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5187,8 +5390,12 @@
       <c r="P52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5206,7 +5413,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -5214,7 +5421,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -5269,7 +5476,9 @@
       <c r="Q53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R53" s="7"/>
+      <c r="R53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5291,11 +5500,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -5347,8 +5556,12 @@
       <c r="P54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
+      <c r="Q54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
       <c r="U54" s="25"/>
@@ -5370,11 +5583,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -5427,12 +5640,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8164,7 +8377,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10951,12 +11164,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,21 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1112,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,7 +1112,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22:S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1381,7 +1367,9 @@
       <c r="R4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -1402,11 +1390,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1464,7 +1452,9 @@
       <c r="R5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1485,11 +1475,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1547,7 +1537,9 @@
       <c r="R6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -1568,11 +1560,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1631,7 +1623,9 @@
       <c r="R7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1652,11 +1646,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1714,7 +1708,9 @@
       <c r="R8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -1735,11 +1731,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1797,7 +1793,9 @@
       <c r="R9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1818,11 +1816,11 @@
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1880,7 +1878,9 @@
       <c r="R10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1963,7 +1963,9 @@
       <c r="R11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1980,7 +1982,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
@@ -1988,7 +1990,7 @@
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2046,7 +2048,9 @@
       <c r="R12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -2067,11 +2071,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2129,7 +2133,9 @@
       <c r="R13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2212,7 +2218,9 @@
       <c r="R14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -2233,11 +2241,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2295,7 +2303,9 @@
       <c r="R15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -2316,11 +2326,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2378,7 +2388,9 @@
       <c r="R16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -2395,7 +2407,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
@@ -2403,7 +2415,7 @@
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2461,7 +2473,9 @@
       <c r="R17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2482,11 +2496,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2544,7 +2558,9 @@
       <c r="R18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -2565,11 +2581,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2627,7 +2643,9 @@
       <c r="R19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2644,7 +2662,7 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -2652,7 +2670,7 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2710,7 +2728,9 @@
       <c r="R20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -2731,11 +2751,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2793,7 +2813,9 @@
       <c r="R21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2814,11 +2836,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2876,7 +2898,9 @@
       <c r="R22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -2897,11 +2921,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2959,7 +2983,9 @@
       <c r="R23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2980,11 +3006,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3042,7 +3068,9 @@
       <c r="R24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -3063,11 +3091,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3125,7 +3153,9 @@
       <c r="R25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S25" s="7"/>
+      <c r="S25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -3146,11 +3176,11 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3208,7 +3238,9 @@
       <c r="R26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -3225,7 +3257,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -3233,7 +3265,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3291,7 +3323,9 @@
       <c r="R27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3308,7 +3342,7 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -3316,7 +3350,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3374,7 +3408,9 @@
       <c r="R28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="7"/>
+      <c r="S28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -3395,11 +3431,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3457,7 +3493,9 @@
       <c r="R29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S29" s="7"/>
+      <c r="S29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3478,11 +3516,11 @@
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3540,7 +3578,9 @@
       <c r="R30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -3557,7 +3597,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -3565,7 +3605,7 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3623,7 +3663,9 @@
       <c r="R31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S31" s="7"/>
+      <c r="S31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3640,7 +3682,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3648,7 +3690,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3706,7 +3748,9 @@
       <c r="R32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -3727,11 +3771,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3789,7 +3833,9 @@
       <c r="R33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S33" s="7"/>
+      <c r="S33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3810,11 +3856,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3872,7 +3918,9 @@
       <c r="R34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S34" s="7"/>
+      <c r="S34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
@@ -3893,11 +3941,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -3955,7 +4003,9 @@
       <c r="R35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S35" s="7"/>
+      <c r="S35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3976,11 +4026,11 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4038,7 +4088,9 @@
       <c r="R36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S36" s="7"/>
+      <c r="S36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -4055,7 +4107,7 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -4063,7 +4115,7 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4121,7 +4173,9 @@
       <c r="R37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -4142,11 +4196,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4204,7 +4258,9 @@
       <c r="R38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S38" s="7"/>
+      <c r="S38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -4225,11 +4281,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4287,7 +4343,9 @@
       <c r="R39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S39" s="7"/>
+      <c r="S39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -4304,7 +4362,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -4312,7 +4370,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4370,7 +4428,9 @@
       <c r="R40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -4391,11 +4451,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4453,7 +4513,9 @@
       <c r="R41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S41" s="7"/>
+      <c r="S41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4474,11 +4536,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4536,7 +4598,9 @@
       <c r="R42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S42" s="7"/>
+      <c r="S42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -4557,11 +4621,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4619,7 +4683,9 @@
       <c r="R43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S43" s="7"/>
+      <c r="S43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4640,11 +4706,11 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4702,7 +4768,9 @@
       <c r="R44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S44" s="7"/>
+      <c r="S44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -4719,7 +4787,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -4727,7 +4795,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4785,7 +4853,9 @@
       <c r="R45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="7"/>
+      <c r="S45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4806,11 +4876,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4868,7 +4938,9 @@
       <c r="R46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S46" s="7"/>
+      <c r="S46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -4885,7 +4957,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -4893,7 +4965,7 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5064,7 +5136,9 @@
       <c r="R48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S48" s="7"/>
+      <c r="S48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -5085,11 +5159,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5147,7 +5221,9 @@
       <c r="R49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S49" s="7"/>
+      <c r="S49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -5168,11 +5244,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5230,7 +5306,9 @@
       <c r="R50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S50" s="7"/>
+      <c r="S50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
@@ -5251,11 +5329,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5313,7 +5391,9 @@
       <c r="R51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S51" s="7"/>
+      <c r="S51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -5330,7 +5410,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -5338,7 +5418,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5396,7 +5476,9 @@
       <c r="R52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S52" s="7"/>
+      <c r="S52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
@@ -5417,11 +5499,11 @@
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -5479,7 +5561,9 @@
       <c r="R53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5500,11 +5584,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -5562,7 +5646,9 @@
       <c r="R54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S54" s="25"/>
+      <c r="S54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="T54" s="25"/>
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
@@ -5583,11 +5669,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -5640,12 +5726,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8377,7 +8463,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11164,12 +11250,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,28 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1098,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22:S40"/>
+      <selection pane="bottomRight" activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1455,7 +1434,9 @@
       <c r="S5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -1475,11 +1456,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1711,7 +1692,9 @@
       <c r="S8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -1731,11 +1714,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2816,7 +2799,9 @@
       <c r="S21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="7"/>
+      <c r="T21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -2836,11 +2821,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2901,7 +2886,9 @@
       <c r="S22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -2921,11 +2908,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3156,7 +3143,9 @@
       <c r="S25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T25" s="7"/>
+      <c r="T25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
@@ -3176,11 +3165,11 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3411,7 +3400,9 @@
       <c r="S28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -3431,11 +3422,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3666,7 +3657,9 @@
       <c r="S31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
@@ -3686,11 +3679,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3921,7 +3914,9 @@
       <c r="S34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T34" s="7"/>
+      <c r="T34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -3941,11 +3936,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4601,7 +4596,9 @@
       <c r="S42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T42" s="7"/>
+      <c r="T42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
@@ -4621,11 +4618,11 @@
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5309,7 +5306,9 @@
       <c r="S50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T50" s="7"/>
+      <c r="T50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
@@ -5329,11 +5328,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5564,7 +5563,9 @@
       <c r="S53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T53" s="7"/>
+      <c r="T53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
@@ -5584,11 +5585,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -5726,12 +5727,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8463,7 +8464,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11250,12 +11251,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$C$2:$AG$55</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterate="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1091,7 +1105,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T54" sqref="T54"/>
+      <selection pane="bottomRight" activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1349,10 +1363,18 @@
       <c r="S4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
@@ -1369,11 +1391,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1437,8 +1459,12 @@
       <c r="T5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="U5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
@@ -1456,15 +1482,15 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1521,9 +1547,15 @@
       <c r="S6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="T6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -1537,15 +1569,15 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1607,9 +1639,15 @@
       <c r="S7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="T7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
@@ -1627,15 +1665,15 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1695,8 +1733,12 @@
       <c r="T8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="U8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -1714,11 +1756,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1779,10 +1821,18 @@
       <c r="S9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="T9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
@@ -1795,19 +1845,19 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1864,9 +1914,15 @@
       <c r="S10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -1880,20 +1936,20 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="18">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>41</v>
@@ -1949,10 +2005,18 @@
       <c r="S11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -1965,20 +2029,20 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="18">
-        <v>46</v>
+      <c r="A12" s="16">
+        <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>42</v>
@@ -2034,9 +2098,15 @@
       <c r="S12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -2054,16 +2124,16 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>5</v>
@@ -2119,9 +2189,15 @@
       <c r="S13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="T13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -2135,20 +2211,20 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="41">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="16">
         <v>11</v>
-      </c>
-      <c r="AJ13" s="41">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="18">
-        <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>6</v>
@@ -2204,9 +2280,15 @@
       <c r="S14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2224,16 +2306,16 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>7</v>
@@ -2289,10 +2371,18 @@
       <c r="S15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -2309,16 +2399,16 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="18">
-        <v>12</v>
+      <c r="A16" s="16">
+        <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>9</v>
@@ -2374,9 +2464,15 @@
       <c r="S16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="T16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -2394,16 +2490,16 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>8</v>
@@ -2459,9 +2555,15 @@
       <c r="S17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
@@ -2475,20 +2577,20 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="18">
-        <v>13</v>
+      <c r="A18" s="16">
+        <v>15</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>10</v>
@@ -2544,9 +2646,15 @@
       <c r="S18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -2564,16 +2672,16 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>11</v>
@@ -2629,10 +2737,18 @@
       <c r="S19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
@@ -2649,16 +2765,16 @@
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="16">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="18">
-        <v>15</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>12</v>
@@ -2714,10 +2830,18 @@
       <c r="S20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="T20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -2734,16 +2858,16 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>13</v>
@@ -2802,9 +2926,15 @@
       <c r="T21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="U21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -2821,16 +2951,16 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="18">
-        <v>17</v>
+      <c r="A22" s="16">
+        <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>14</v>
@@ -2889,9 +3019,15 @@
       <c r="T22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
+      <c r="U22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
@@ -2908,16 +3044,16 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>55</v>
@@ -2973,9 +3109,15 @@
       <c r="S23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -2989,20 +3131,20 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="18">
-        <v>19</v>
+      <c r="A24" s="16">
+        <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>15</v>
@@ -3058,9 +3200,15 @@
       <c r="S24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="T24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -3078,16 +3226,16 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>16</v>
@@ -3146,8 +3294,12 @@
       <c r="T25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="U25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -3165,16 +3317,16 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="18">
-        <v>21</v>
+      <c r="A26" s="16">
+        <v>23</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>17</v>
@@ -3230,9 +3382,15 @@
       <c r="S26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="T26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -3246,20 +3404,20 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="18">
-        <v>48</v>
+      <c r="A27" s="16">
+        <v>24</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>44</v>
@@ -3315,9 +3473,15 @@
       <c r="S27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="T27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -3331,20 +3495,20 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>18</v>
@@ -3403,9 +3567,15 @@
       <c r="T28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="U28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -3422,16 +3592,16 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="18">
-        <v>23</v>
+      <c r="A29" s="16">
+        <v>26</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>19</v>
@@ -3487,10 +3657,18 @@
       <c r="S29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="T29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -3503,20 +3681,20 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="18">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>20</v>
@@ -3572,10 +3750,18 @@
       <c r="S30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+      <c r="T30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -3588,20 +3774,20 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="18">
-        <v>25</v>
+      <c r="A31" s="16">
+        <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>21</v>
@@ -3660,8 +3846,12 @@
       <c r="T31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="U31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -3675,20 +3865,20 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>22</v>
@@ -3744,9 +3934,15 @@
       <c r="S32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="T32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -3764,16 +3960,16 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="18">
-        <v>27</v>
+      <c r="A33" s="16">
+        <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>23</v>
@@ -3829,9 +4025,15 @@
       <c r="S33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="T33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -3849,16 +4051,16 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>24</v>
@@ -3917,8 +4119,12 @@
       <c r="T34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="U34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -3936,16 +4142,16 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="18">
-        <v>47</v>
+      <c r="A35" s="16">
+        <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>43</v>
@@ -4001,10 +4207,18 @@
       <c r="S35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
+      <c r="T35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -4017,20 +4231,20 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="18">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>40</v>
@@ -4086,9 +4300,15 @@
       <c r="S36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
+      <c r="T36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -4102,7 +4322,7 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -4110,12 +4330,12 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="18">
-        <v>29</v>
+      <c r="A37" s="16">
+        <v>34</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>25</v>
@@ -4171,10 +4391,18 @@
       <c r="S37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+      <c r="T37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -4191,16 +4419,16 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>26</v>
@@ -4256,9 +4484,15 @@
       <c r="S38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+      <c r="T38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -4272,20 +4506,20 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:36">
-      <c r="A39" s="18">
-        <v>31</v>
+      <c r="A39" s="16">
+        <v>36</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>27</v>
@@ -4341,10 +4575,18 @@
       <c r="S39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
+      <c r="T39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -4357,20 +4599,20 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="18">
-        <v>32</v>
+      <c r="A40" s="16">
+        <v>37</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>28</v>
@@ -4426,10 +4668,18 @@
       <c r="S40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
+      <c r="T40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -4446,16 +4696,16 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="18">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>29</v>
@@ -4511,9 +4761,15 @@
       <c r="S41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
+      <c r="T41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -4531,16 +4787,16 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:36">
-      <c r="A42" s="18">
-        <v>34</v>
+      <c r="A42" s="16">
+        <v>39</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>30</v>
@@ -4599,8 +4855,12 @@
       <c r="T42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
+      <c r="U42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -4614,20 +4874,20 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:36">
       <c r="A43" s="18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>31</v>
@@ -4683,9 +4943,15 @@
       <c r="S43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
+      <c r="T43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -4699,20 +4965,20 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:36">
-      <c r="A44" s="18">
-        <v>36</v>
+      <c r="A44" s="16">
+        <v>41</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>32</v>
@@ -4768,9 +5034,15 @@
       <c r="S44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
+      <c r="T44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
@@ -4784,20 +5056,20 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="18">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>46</v>
@@ -4853,10 +5125,18 @@
       <c r="S45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
+      <c r="T45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -4869,20 +5149,20 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:36">
-      <c r="A46" s="18">
-        <v>37</v>
+      <c r="A46" s="16">
+        <v>43</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>33</v>
@@ -4938,9 +5218,15 @@
       <c r="S46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
+      <c r="T46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -4954,20 +5240,20 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="18">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>34</v>
@@ -5079,8 +5365,8 @@
       </c>
     </row>
     <row r="48" spans="1:36">
-      <c r="A48" s="18">
-        <v>51</v>
+      <c r="A48" s="16">
+        <v>45</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>47</v>
@@ -5136,9 +5422,15 @@
       <c r="S48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
+      <c r="T48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
@@ -5152,20 +5444,20 @@
       <c r="AG48" s="8"/>
       <c r="AH48" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="18">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>35</v>
@@ -5221,9 +5513,15 @@
       <c r="S49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
+      <c r="T49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -5241,16 +5539,16 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:36">
-      <c r="A50" s="18">
-        <v>40</v>
+      <c r="A50" s="16">
+        <v>47</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>36</v>
@@ -5309,9 +5607,15 @@
       <c r="T50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
+      <c r="U50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
@@ -5328,16 +5632,16 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:36">
-      <c r="A51" s="18">
-        <v>49</v>
+      <c r="A51" s="16">
+        <v>48</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>45</v>
@@ -5393,9 +5697,15 @@
       <c r="S51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
+      <c r="T51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
@@ -5409,7 +5719,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -5417,12 +5727,12 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="18">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>37</v>
@@ -5478,10 +5788,18 @@
       <c r="S52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
+      <c r="T52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
@@ -5494,20 +5812,20 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:36">
-      <c r="A53" s="18">
-        <v>42</v>
+      <c r="A53" s="16">
+        <v>50</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>38</v>
@@ -5566,9 +5884,15 @@
       <c r="T53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
+      <c r="U53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
@@ -5585,16 +5909,16 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
-      <c r="A54" s="22">
-        <v>43</v>
+      <c r="A54" s="18">
+        <v>51</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>39</v>
@@ -5650,9 +5974,15 @@
       <c r="S54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="25"/>
+      <c r="T54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="U54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="V54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="W54" s="25"/>
       <c r="X54" s="25"/>
       <c r="Y54" s="25"/>
@@ -5670,11 +6000,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -5727,12 +6057,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8464,7 +8794,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11251,12 +11581,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -1091,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,10 +1102,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W54" sqref="W54"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1465,7 +1465,9 @@
       <c r="V5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -1478,7 +1480,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
@@ -1486,7 +1488,7 @@
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1556,7 +1558,9 @@
       <c r="V6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -1569,7 +1573,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
@@ -1577,7 +1581,7 @@
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1648,7 +1652,9 @@
       <c r="V7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -1665,11 +1671,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1739,7 +1745,9 @@
       <c r="V8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -1756,11 +1764,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1923,7 +1931,9 @@
       <c r="V10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -1936,7 +1946,7 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
@@ -1944,7 +1954,7 @@
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2107,7 +2117,9 @@
       <c r="V12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -2124,11 +2136,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2198,7 +2210,9 @@
       <c r="V13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -2211,7 +2225,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
@@ -2219,7 +2233,7 @@
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2289,7 +2303,9 @@
       <c r="V14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -2306,11 +2322,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2473,7 +2489,9 @@
       <c r="V16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
@@ -2490,11 +2508,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2564,7 +2582,9 @@
       <c r="V17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="7"/>
+      <c r="W17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
@@ -2581,11 +2601,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2655,7 +2675,9 @@
       <c r="V18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -2672,11 +2694,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -3118,7 +3140,9 @@
       <c r="V23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W23" s="7"/>
+      <c r="W23" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -3131,7 +3155,7 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
@@ -3139,7 +3163,7 @@
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3209,7 +3233,9 @@
       <c r="V24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -3226,11 +3252,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3300,7 +3326,9 @@
       <c r="V25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="7"/>
+      <c r="W25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
@@ -3317,11 +3345,11 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3391,7 +3419,9 @@
       <c r="V26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="7"/>
+      <c r="W26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -3404,7 +3434,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
@@ -3412,7 +3442,7 @@
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3482,7 +3512,9 @@
       <c r="V27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="7"/>
+      <c r="W27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -3495,7 +3527,7 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -3503,7 +3535,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3852,7 +3884,9 @@
       <c r="V31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W31" s="7"/>
+      <c r="W31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -3865,7 +3899,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3873,7 +3907,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3943,7 +3977,9 @@
       <c r="V32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W32" s="7"/>
+      <c r="W32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -3960,11 +3996,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4034,7 +4070,9 @@
       <c r="V33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W33" s="7"/>
+      <c r="W33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
@@ -4051,11 +4089,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4125,7 +4163,9 @@
       <c r="V34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W34" s="7"/>
+      <c r="W34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -4142,11 +4182,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4309,7 +4349,9 @@
       <c r="V36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W36" s="7"/>
+      <c r="W36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -4326,11 +4368,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4493,7 +4535,9 @@
       <c r="V38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W38" s="7"/>
+      <c r="W38" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -4506,7 +4550,7 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
@@ -4514,7 +4558,7 @@
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4770,7 +4814,9 @@
       <c r="V41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W41" s="7"/>
+      <c r="W41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -4787,11 +4833,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4861,7 +4907,9 @@
       <c r="V42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W42" s="7"/>
+      <c r="W42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -4874,7 +4922,7 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -4882,7 +4930,7 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4952,7 +5000,9 @@
       <c r="V43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W43" s="7"/>
+      <c r="W43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -4969,11 +5019,11 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5043,7 +5093,9 @@
       <c r="V44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W44" s="7"/>
+      <c r="W44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
@@ -5056,7 +5108,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -5064,7 +5116,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5227,7 +5279,9 @@
       <c r="V46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W46" s="7"/>
+      <c r="W46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -5244,11 +5298,11 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5431,7 +5485,9 @@
       <c r="V48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W48" s="7"/>
+      <c r="W48" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -5444,7 +5500,7 @@
       <c r="AG48" s="8"/>
       <c r="AH48" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
@@ -5452,7 +5508,7 @@
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5522,7 +5578,9 @@
       <c r="V49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W49" s="7"/>
+      <c r="W49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
@@ -5539,11 +5597,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5706,7 +5764,9 @@
       <c r="V51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W51" s="7"/>
+      <c r="W51" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
@@ -5719,7 +5779,7 @@
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
@@ -5727,7 +5787,7 @@
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5983,7 +6043,9 @@
       <c r="V54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="W54" s="25"/>
+      <c r="W54" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="X54" s="25"/>
       <c r="Y54" s="25"/>
       <c r="Z54" s="25"/>
@@ -6000,11 +6062,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:36">

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,21 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1105,7 +1091,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1375,7 +1361,9 @@
       <c r="W4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -1391,11 +1379,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1468,7 +1456,9 @@
       <c r="W5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="7"/>
+      <c r="X5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -1484,11 +1474,11 @@
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1561,7 +1551,9 @@
       <c r="W6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -1573,7 +1565,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
@@ -1581,7 +1573,7 @@
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1655,7 +1647,9 @@
       <c r="W7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="7"/>
+      <c r="X7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -1671,11 +1665,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1748,7 +1742,9 @@
       <c r="W8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -1764,11 +1760,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1841,7 +1837,9 @@
       <c r="W9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X9" s="7"/>
+      <c r="X9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -1853,7 +1851,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1861,7 +1859,7 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1934,7 +1932,9 @@
       <c r="W10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -1950,11 +1950,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2027,7 +2027,9 @@
       <c r="W11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X11" s="7"/>
+      <c r="X11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2039,7 +2041,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
@@ -2047,7 +2049,7 @@
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2120,7 +2122,9 @@
       <c r="W12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -2136,11 +2140,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2213,7 +2217,9 @@
       <c r="W13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X13" s="7"/>
+      <c r="X13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -2229,11 +2235,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2306,7 +2312,9 @@
       <c r="W14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -2322,11 +2330,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2399,7 +2407,9 @@
       <c r="W15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X15" s="7"/>
+      <c r="X15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -2415,11 +2425,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2492,7 +2502,9 @@
       <c r="W16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X16" s="7"/>
+      <c r="X16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -2508,11 +2520,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2585,7 +2597,9 @@
       <c r="W17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="7"/>
+      <c r="X17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -2601,11 +2615,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2678,7 +2692,9 @@
       <c r="W18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -2694,11 +2710,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2771,7 +2787,9 @@
       <c r="W19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -2787,11 +2805,11 @@
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2864,7 +2882,9 @@
       <c r="W20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -2880,11 +2900,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2957,7 +2977,9 @@
       <c r="W21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -2973,11 +2995,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3050,7 +3072,9 @@
       <c r="W22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -3066,11 +3090,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3143,7 +3167,9 @@
       <c r="W23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X23" s="7"/>
+      <c r="X23" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -3155,7 +3181,7 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
@@ -3163,7 +3189,7 @@
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3236,7 +3262,9 @@
       <c r="W24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -3252,11 +3280,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3329,7 +3357,9 @@
       <c r="W25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X25" s="7"/>
+      <c r="X25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -3341,7 +3371,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -3349,7 +3379,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3422,7 +3452,9 @@
       <c r="W26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -3438,11 +3470,11 @@
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3515,7 +3547,9 @@
       <c r="W27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X27" s="7"/>
+      <c r="X27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -3527,7 +3561,7 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -3535,7 +3569,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3608,7 +3642,9 @@
       <c r="W28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -3620,7 +3656,7 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
@@ -3628,7 +3664,7 @@
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3701,7 +3737,9 @@
       <c r="W29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X29" s="7"/>
+      <c r="X29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
@@ -3713,7 +3751,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -3721,7 +3759,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3794,7 +3832,9 @@
       <c r="W30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -3810,11 +3850,11 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3887,7 +3927,9 @@
       <c r="W31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="7"/>
+      <c r="X31" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -3899,7 +3941,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
@@ -3907,7 +3949,7 @@
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3980,7 +4022,9 @@
       <c r="W32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X32" s="7"/>
+      <c r="X32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -3996,11 +4040,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4073,7 +4117,9 @@
       <c r="W33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X33" s="7"/>
+      <c r="X33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -4089,11 +4135,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4166,7 +4212,9 @@
       <c r="W34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X34" s="7"/>
+      <c r="X34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -4182,11 +4230,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4259,7 +4307,9 @@
       <c r="W35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X35" s="7"/>
+      <c r="X35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -4275,11 +4325,11 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4352,7 +4402,9 @@
       <c r="W36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X36" s="7"/>
+      <c r="X36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
@@ -4368,11 +4420,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4445,7 +4497,9 @@
       <c r="W37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X37" s="7"/>
+      <c r="X37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -4461,11 +4515,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4538,7 +4592,9 @@
       <c r="W38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X38" s="7"/>
+      <c r="X38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -4554,11 +4610,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4631,7 +4687,9 @@
       <c r="W39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X39" s="7"/>
+      <c r="X39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -4643,7 +4701,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -4651,7 +4709,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4724,7 +4782,9 @@
       <c r="W40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X40" s="7"/>
+      <c r="X40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -4740,11 +4800,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4817,7 +4877,9 @@
       <c r="W41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X41" s="7"/>
+      <c r="X41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
@@ -4833,11 +4895,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4910,7 +4972,9 @@
       <c r="W42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X42" s="7"/>
+      <c r="X42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
@@ -4922,7 +4986,7 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -4930,7 +4994,7 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5003,7 +5067,9 @@
       <c r="W43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X43" s="7"/>
+      <c r="X43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
@@ -5019,11 +5085,11 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5096,7 +5162,9 @@
       <c r="W44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X44" s="7"/>
+      <c r="X44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
@@ -5108,7 +5176,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -5116,7 +5184,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5189,7 +5257,9 @@
       <c r="W45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X45" s="7"/>
+      <c r="X45" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
@@ -5205,11 +5275,11 @@
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5282,7 +5352,9 @@
       <c r="W46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X46" s="7"/>
+      <c r="X46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
@@ -5298,11 +5370,11 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5488,7 +5560,9 @@
       <c r="W48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X48" s="7"/>
+      <c r="X48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -5504,11 +5578,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5581,7 +5655,9 @@
       <c r="W49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X49" s="7"/>
+      <c r="X49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
@@ -5597,11 +5673,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5674,7 +5750,9 @@
       <c r="W50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X50" s="7"/>
+      <c r="X50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
@@ -5690,11 +5768,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5767,7 +5845,9 @@
       <c r="W51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X51" s="7"/>
+      <c r="X51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
@@ -5783,11 +5863,11 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5860,7 +5940,9 @@
       <c r="W52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X52" s="7"/>
+      <c r="X52" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
@@ -5876,11 +5958,11 @@
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -5953,7 +6035,9 @@
       <c r="W53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X53" s="7"/>
+      <c r="X53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
@@ -5969,11 +6053,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -6046,7 +6130,9 @@
       <c r="W54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X54" s="25"/>
+      <c r="X54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="Y54" s="25"/>
       <c r="Z54" s="25"/>
       <c r="AA54" s="25"/>
@@ -6062,11 +6148,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6119,12 +6205,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8856,7 +8942,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11643,12 +11729,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,42 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1077,7 +1112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,7 +1126,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1364,7 +1399,9 @@
       <c r="X4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -1379,11 +1416,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1459,7 +1496,9 @@
       <c r="X5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -1470,7 +1509,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
@@ -1478,7 +1517,7 @@
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1554,7 +1593,9 @@
       <c r="X6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -1565,7 +1606,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
@@ -1573,7 +1614,7 @@
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1650,7 +1691,9 @@
       <c r="X7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
@@ -1665,11 +1708,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1745,7 +1788,9 @@
       <c r="X8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -1760,11 +1805,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1840,7 +1885,9 @@
       <c r="X9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
@@ -1851,7 +1898,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1859,7 +1906,7 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1935,7 +1982,9 @@
       <c r="X10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -1950,11 +1999,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2030,7 +2079,9 @@
       <c r="X11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -2045,11 +2096,11 @@
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2125,7 +2176,9 @@
       <c r="X12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -2140,11 +2193,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2220,7 +2273,9 @@
       <c r="X13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y13" s="7"/>
+      <c r="Y13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
@@ -2231,7 +2286,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
@@ -2239,7 +2294,7 @@
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2315,7 +2370,9 @@
       <c r="X14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -2330,11 +2387,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2410,7 +2467,9 @@
       <c r="X15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y15" s="7"/>
+      <c r="Y15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -2421,7 +2480,7 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
@@ -2429,7 +2488,7 @@
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2505,7 +2564,9 @@
       <c r="X16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -2520,11 +2581,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2600,7 +2661,9 @@
       <c r="X17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" s="7"/>
+      <c r="Y17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -2615,11 +2678,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2695,7 +2758,9 @@
       <c r="X18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -2710,11 +2775,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2790,7 +2855,9 @@
       <c r="X19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -2801,7 +2868,7 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -2809,7 +2876,7 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2885,7 +2952,9 @@
       <c r="X20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -2900,11 +2969,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2980,7 +3049,9 @@
       <c r="X21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="7"/>
+      <c r="Y21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
@@ -2995,11 +3066,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3075,7 +3146,9 @@
       <c r="X22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
@@ -3090,11 +3163,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3170,7 +3243,9 @@
       <c r="X23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y23" s="7"/>
+      <c r="Y23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
@@ -3185,11 +3260,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3265,7 +3340,9 @@
       <c r="X24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
@@ -3280,11 +3357,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3360,7 +3437,9 @@
       <c r="X25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y25" s="7"/>
+      <c r="Y25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -3371,7 +3450,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -3379,7 +3458,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3455,7 +3534,9 @@
       <c r="X26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -3470,11 +3551,11 @@
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3550,7 +3631,9 @@
       <c r="X27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y27" s="7"/>
+      <c r="Y27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
@@ -3561,7 +3644,7 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -3569,7 +3652,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3645,7 +3728,9 @@
       <c r="X28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y28" s="7"/>
+      <c r="Y28" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -3656,7 +3741,7 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
@@ -3664,7 +3749,7 @@
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3740,7 +3825,9 @@
       <c r="X29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y29" s="7"/>
+      <c r="Y29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -3755,11 +3842,11 @@
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3835,7 +3922,9 @@
       <c r="X30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y30" s="7"/>
+      <c r="Y30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -3850,11 +3939,11 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3930,7 +4019,9 @@
       <c r="X31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y31" s="7"/>
+      <c r="Y31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
@@ -3945,11 +4036,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -4025,7 +4116,9 @@
       <c r="X32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y32" s="7"/>
+      <c r="Y32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -4040,11 +4133,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4120,7 +4213,9 @@
       <c r="X33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y33" s="7"/>
+      <c r="Y33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
@@ -4135,11 +4230,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4215,7 +4310,9 @@
       <c r="X34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
@@ -4230,11 +4327,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4310,7 +4407,9 @@
       <c r="X35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y35" s="7"/>
+      <c r="Y35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -4325,11 +4424,11 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4405,7 +4504,9 @@
       <c r="X36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -4416,7 +4517,7 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -4424,7 +4525,7 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4500,7 +4601,9 @@
       <c r="X37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y37" s="7"/>
+      <c r="Y37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -4515,11 +4618,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4595,7 +4698,9 @@
       <c r="X38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y38" s="7"/>
+      <c r="Y38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
@@ -4610,11 +4715,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4690,7 +4795,9 @@
       <c r="X39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y39" s="7"/>
+      <c r="Y39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -4701,7 +4808,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -4709,7 +4816,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4785,7 +4892,9 @@
       <c r="X40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y40" s="7"/>
+      <c r="Y40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -4800,11 +4909,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4880,7 +4989,9 @@
       <c r="X41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y41" s="7"/>
+      <c r="Y41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -4895,11 +5006,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4975,7 +5086,9 @@
       <c r="X42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y42" s="7"/>
+      <c r="Y42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -4986,7 +5099,7 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -4994,7 +5107,7 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5070,7 +5183,9 @@
       <c r="X43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y43" s="7"/>
+      <c r="Y43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
@@ -5085,11 +5200,11 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5165,7 +5280,9 @@
       <c r="X44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Y44" s="7"/>
+      <c r="Y44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5176,7 +5293,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -5184,7 +5301,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5260,7 +5377,9 @@
       <c r="X45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y45" s="7"/>
+      <c r="Y45" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
@@ -5271,7 +5390,7 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
@@ -5279,7 +5398,7 @@
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5355,7 +5474,9 @@
       <c r="X46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y46" s="7"/>
+      <c r="Y46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
@@ -5370,11 +5491,11 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5563,7 +5684,9 @@
       <c r="X48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y48" s="7"/>
+      <c r="Y48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
@@ -5578,11 +5701,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5658,7 +5781,9 @@
       <c r="X49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y49" s="7"/>
+      <c r="Y49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
@@ -5673,11 +5798,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5753,7 +5878,9 @@
       <c r="X50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y50" s="7"/>
+      <c r="Y50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
@@ -5768,11 +5895,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5848,7 +5975,9 @@
       <c r="X51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y51" s="7"/>
+      <c r="Y51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
@@ -5863,11 +5992,11 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -5943,7 +6072,9 @@
       <c r="X52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y52" s="7"/>
+      <c r="Y52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -5954,7 +6085,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -5962,7 +6093,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -6038,7 +6169,9 @@
       <c r="X53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y53" s="7"/>
+      <c r="Y53" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
@@ -6049,7 +6182,7 @@
       <c r="AG53" s="8"/>
       <c r="AH53" s="28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
@@ -6057,7 +6190,7 @@
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -6133,7 +6266,9 @@
       <c r="X54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y54" s="25"/>
+      <c r="Y54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="Z54" s="25"/>
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
@@ -6148,11 +6283,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6205,12 +6340,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8942,7 +9077,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11729,12 +11864,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,42 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1112,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomRight" activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1402,7 +1367,9 @@
       <c r="Y4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -1416,11 +1383,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1499,7 +1466,9 @@
       <c r="Y5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="7"/>
+      <c r="Z5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -1509,7 +1478,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
@@ -1517,7 +1486,7 @@
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1596,7 +1565,9 @@
       <c r="Y6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -1606,7 +1577,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
@@ -1614,7 +1585,7 @@
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1694,7 +1665,9 @@
       <c r="Y7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="7"/>
+      <c r="Z7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -1708,11 +1681,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1791,8 +1764,12 @@
       <c r="Y8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="Z8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -1805,11 +1782,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1888,7 +1865,9 @@
       <c r="Y9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="7"/>
+      <c r="Z9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -1898,7 +1877,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1906,7 +1885,7 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1985,7 +1964,9 @@
       <c r="Y10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -1999,11 +1980,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2082,7 +2063,9 @@
       <c r="Y11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
@@ -2092,7 +2075,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
@@ -2100,7 +2083,7 @@
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2179,7 +2162,9 @@
       <c r="Y12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -2193,11 +2178,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2276,8 +2261,12 @@
       <c r="Y13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
+      <c r="Z13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -2290,11 +2279,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2373,7 +2362,9 @@
       <c r="Y14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z14" s="7"/>
+      <c r="Z14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
@@ -2387,11 +2378,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2470,7 +2461,9 @@
       <c r="Y15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="7"/>
+      <c r="Z15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
@@ -2484,11 +2477,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2567,7 +2560,9 @@
       <c r="Y16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
@@ -2581,11 +2576,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2664,7 +2659,9 @@
       <c r="Y17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z17" s="7"/>
+      <c r="Z17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -2678,11 +2675,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2761,7 +2758,9 @@
       <c r="Y18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -2775,11 +2774,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2858,8 +2857,12 @@
       <c r="Y19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="Z19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
@@ -2868,15 +2871,15 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2955,7 +2958,9 @@
       <c r="Y20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
@@ -2969,11 +2974,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -3052,8 +3057,12 @@
       <c r="Y21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="Z21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -3066,11 +3075,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3149,8 +3158,12 @@
       <c r="Y22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
+      <c r="Z22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -3163,11 +3176,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3246,7 +3259,9 @@
       <c r="Y23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="7"/>
+      <c r="Z23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
@@ -3260,11 +3275,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3343,7 +3358,9 @@
       <c r="Y24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="7"/>
+      <c r="Z24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
@@ -3357,11 +3374,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3440,7 +3457,9 @@
       <c r="Y25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z25" s="7"/>
+      <c r="Z25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
@@ -3450,7 +3469,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -3458,7 +3477,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3537,7 +3556,9 @@
       <c r="Y26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
@@ -3551,11 +3572,11 @@
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3634,7 +3655,9 @@
       <c r="Y27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z27" s="7"/>
+      <c r="Z27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -3648,11 +3671,11 @@
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3731,7 +3754,9 @@
       <c r="Y28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z28" s="7"/>
+      <c r="Z28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
@@ -3745,11 +3770,11 @@
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3828,7 +3853,9 @@
       <c r="Y29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z29" s="7"/>
+      <c r="Z29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
@@ -3838,7 +3865,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -3846,7 +3873,7 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3925,7 +3952,9 @@
       <c r="Y30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
@@ -3939,11 +3968,11 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -4022,7 +4051,9 @@
       <c r="Y31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z31" s="7"/>
+      <c r="Z31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
@@ -4036,11 +4067,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -4119,7 +4150,9 @@
       <c r="Y32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z32" s="7"/>
+      <c r="Z32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
@@ -4133,11 +4166,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4216,7 +4249,9 @@
       <c r="Y33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z33" s="7"/>
+      <c r="Z33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
@@ -4230,11 +4265,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4313,7 +4348,9 @@
       <c r="Y34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z34" s="7"/>
+      <c r="Z34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
@@ -4327,11 +4364,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4410,7 +4447,9 @@
       <c r="Y35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z35" s="7"/>
+      <c r="Z35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
@@ -4424,11 +4463,11 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4507,7 +4546,9 @@
       <c r="Y36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z36" s="7"/>
+      <c r="Z36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
@@ -4521,11 +4562,11 @@
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4604,8 +4645,12 @@
       <c r="Y37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
+      <c r="Z37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
@@ -4618,11 +4663,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4701,7 +4746,9 @@
       <c r="Y38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z38" s="7"/>
+      <c r="Z38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
@@ -4715,11 +4762,11 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4798,7 +4845,9 @@
       <c r="Y39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z39" s="7"/>
+      <c r="Z39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
@@ -4808,7 +4857,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -4816,7 +4865,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4895,8 +4944,12 @@
       <c r="Y40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
+      <c r="Z40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
@@ -4909,11 +4962,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4992,7 +5045,9 @@
       <c r="Y41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z41" s="7"/>
+      <c r="Z41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
@@ -5006,11 +5061,11 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -5089,7 +5144,9 @@
       <c r="Y42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z42" s="7"/>
+      <c r="Z42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
@@ -5099,7 +5156,7 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -5107,7 +5164,7 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5186,8 +5243,12 @@
       <c r="Y43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
+      <c r="Z43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
@@ -5200,11 +5261,11 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5283,7 +5344,9 @@
       <c r="Y44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z44" s="7"/>
+      <c r="Z44" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
@@ -5293,7 +5356,7 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
@@ -5301,7 +5364,7 @@
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5380,7 +5443,9 @@
       <c r="Y45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z45" s="7"/>
+      <c r="Z45" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
@@ -5390,7 +5455,7 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
@@ -5398,7 +5463,7 @@
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5477,7 +5542,9 @@
       <c r="Y46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z46" s="7"/>
+      <c r="Z46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
@@ -5491,11 +5558,11 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5687,7 +5754,9 @@
       <c r="Y48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z48" s="7"/>
+      <c r="Z48" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
@@ -5697,7 +5766,7 @@
       <c r="AG48" s="8"/>
       <c r="AH48" s="28">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
@@ -5705,7 +5774,7 @@
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -5784,8 +5853,12 @@
       <c r="Y49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
+      <c r="Z49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
@@ -5798,11 +5871,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -5881,8 +5954,12 @@
       <c r="Y50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
+      <c r="Z50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
@@ -5895,11 +5972,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -5978,7 +6055,9 @@
       <c r="Y51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z51" s="7"/>
+      <c r="Z51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
@@ -5992,11 +6071,11 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -6075,7 +6154,9 @@
       <c r="Y52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z52" s="7"/>
+      <c r="Z52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
@@ -6085,7 +6166,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -6093,7 +6174,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -6172,7 +6253,9 @@
       <c r="Y53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z53" s="7"/>
+      <c r="Z53" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
@@ -6182,7 +6265,7 @@
       <c r="AG53" s="8"/>
       <c r="AH53" s="28">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
@@ -6190,7 +6273,7 @@
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -6269,7 +6352,9 @@
       <c r="Y54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Z54" s="25"/>
+      <c r="Z54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
       <c r="AC54" s="25"/>
@@ -6283,11 +6368,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6340,12 +6425,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9077,7 +9162,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11864,12 +11949,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1077,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1085,13 +1099,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA51" sqref="AA51"/>
+      <selection pane="bottomRight" activeCell="AB34" sqref="AB25:AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1181,7 +1196,7 @@
       <c r="AH2" s="39"/>
       <c r="AI2" s="39"/>
     </row>
-    <row r="3" spans="1:38" ht="16.5" thickBot="1">
+    <row r="3" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" hidden="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -1370,8 +1385,12 @@
       <c r="Z4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
+      <c r="AA4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -1383,14 +1402,14 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" hidden="1">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1469,8 +1488,12 @@
       <c r="Z5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="AA5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -1478,18 +1501,18 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" hidden="1">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -1568,8 +1591,12 @@
       <c r="Z6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="AA6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -1581,15 +1608,15 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" hidden="1">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -1668,8 +1695,12 @@
       <c r="Z7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="AA7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -1681,14 +1712,14 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" hidden="1">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1770,7 +1801,9 @@
       <c r="AA8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -1782,14 +1815,14 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" hidden="1">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -1868,8 +1901,12 @@
       <c r="Z9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="AA9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -1877,7 +1914,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1885,10 +1922,10 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" hidden="1">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1967,8 +2004,12 @@
       <c r="Z10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
+      <c r="AA10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -1976,7 +2017,7 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
@@ -1984,10 +2025,10 @@
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" hidden="1">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -2066,8 +2107,12 @@
       <c r="Z11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="AA11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -2075,18 +2120,18 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" hidden="1">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -2165,8 +2210,12 @@
       <c r="Z12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="AA12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -2178,14 +2227,14 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" hidden="1">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -2267,7 +2316,9 @@
       <c r="AA13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -2279,14 +2330,14 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" hidden="1">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -2365,8 +2416,12 @@
       <c r="Z14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="AA14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -2378,14 +2433,14 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" hidden="1">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -2464,8 +2519,12 @@
       <c r="Z15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+      <c r="AA15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -2477,14 +2536,14 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" hidden="1">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -2563,8 +2622,12 @@
       <c r="Z16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+      <c r="AA16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
@@ -2572,7 +2635,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
@@ -2580,10 +2643,10 @@
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" hidden="1">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -2662,8 +2725,12 @@
       <c r="Z17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
+      <c r="AA17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
@@ -2675,14 +2742,14 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" hidden="1">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -2761,8 +2828,12 @@
       <c r="Z18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
+      <c r="AA18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
@@ -2774,14 +2845,14 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" hidden="1">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -2863,7 +2934,9 @@
       <c r="AA19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB19" s="7"/>
+      <c r="AB19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
@@ -2875,14 +2948,14 @@
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" hidden="1">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -2961,8 +3034,12 @@
       <c r="Z20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+      <c r="AA20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
@@ -2974,14 +3051,14 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" hidden="1">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -3063,7 +3140,9 @@
       <c r="AA21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB21" s="7"/>
+      <c r="AB21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
@@ -3075,14 +3154,14 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" hidden="1">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -3164,7 +3243,9 @@
       <c r="AA22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB22" s="7"/>
+      <c r="AB22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
@@ -3176,14 +3257,14 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" hidden="1">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -3262,8 +3343,12 @@
       <c r="Z23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="AA23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
@@ -3275,14 +3360,14 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" hidden="1">
       <c r="A24" s="16">
         <v>21</v>
       </c>
@@ -3361,8 +3446,12 @@
       <c r="Z24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="AA24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
@@ -3370,7 +3459,7 @@
       <c r="AG24" s="8"/>
       <c r="AH24" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
@@ -3378,7 +3467,7 @@
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3460,8 +3549,12 @@
       <c r="Z25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+      <c r="AA25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
@@ -3473,14 +3566,14 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" hidden="1">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -3559,8 +3652,12 @@
       <c r="Z26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="AA26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
@@ -3568,18 +3665,18 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" hidden="1">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -3658,8 +3755,12 @@
       <c r="Z27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+      <c r="AA27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
@@ -3667,18 +3768,18 @@
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" hidden="1">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -3757,8 +3858,12 @@
       <c r="Z28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
+      <c r="AA28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
@@ -3766,18 +3871,18 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" hidden="1">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -3856,8 +3961,12 @@
       <c r="Z29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="AA29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
@@ -3865,18 +3974,18 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" hidden="1">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -3955,8 +4064,12 @@
       <c r="Z30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
+      <c r="AA30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
@@ -3964,7 +4077,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -3972,10 +4085,10 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" hidden="1">
       <c r="A31" s="16">
         <v>28</v>
       </c>
@@ -4054,8 +4167,12 @@
       <c r="Z31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+      <c r="AA31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
@@ -4067,14 +4184,14 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" hidden="1">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -4153,8 +4270,12 @@
       <c r="Z32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="AA32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
@@ -4166,14 +4287,14 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" hidden="1">
       <c r="A33" s="16">
         <v>30</v>
       </c>
@@ -4252,8 +4373,12 @@
       <c r="Z33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
+      <c r="AA33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
@@ -4265,11 +4390,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4351,8 +4476,12 @@
       <c r="Z34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
+      <c r="AA34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
@@ -4364,14 +4493,14 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" hidden="1">
       <c r="A35" s="16">
         <v>32</v>
       </c>
@@ -4450,8 +4579,12 @@
       <c r="Z35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+      <c r="AA35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
@@ -4459,18 +4592,18 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" hidden="1">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -4549,8 +4682,12 @@
       <c r="Z36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
+      <c r="AA36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
@@ -4558,18 +4695,18 @@
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" hidden="1">
       <c r="A37" s="16">
         <v>34</v>
       </c>
@@ -4651,7 +4788,9 @@
       <c r="AA37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -4663,14 +4802,14 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" hidden="1">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -4749,8 +4888,12 @@
       <c r="Z38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AA38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
@@ -4758,7 +4901,7 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
@@ -4766,10 +4909,10 @@
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" hidden="1">
       <c r="A39" s="16">
         <v>36</v>
       </c>
@@ -4848,8 +4991,12 @@
       <c r="Z39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+      <c r="AA39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
@@ -4857,7 +5004,7 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -4865,10 +5012,10 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" hidden="1">
       <c r="A40" s="16">
         <v>37</v>
       </c>
@@ -4950,7 +5097,9 @@
       <c r="AA40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB40" s="7"/>
+      <c r="AB40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
@@ -4962,14 +5111,14 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" hidden="1">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -5048,8 +5197,12 @@
       <c r="Z41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
+      <c r="AA41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
@@ -5061,14 +5214,14 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" hidden="1">
       <c r="A42" s="16">
         <v>39</v>
       </c>
@@ -5147,8 +5300,12 @@
       <c r="Z42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
+      <c r="AA42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
@@ -5156,7 +5313,7 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -5164,10 +5321,10 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" hidden="1">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -5249,7 +5406,9 @@
       <c r="AA43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB43" s="7"/>
+      <c r="AB43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
@@ -5261,14 +5420,14 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" hidden="1">
       <c r="A44" s="16">
         <v>41</v>
       </c>
@@ -5347,8 +5506,12 @@
       <c r="Z44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
+      <c r="AA44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB44" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
@@ -5360,14 +5523,14 @@
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" hidden="1">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -5446,8 +5609,12 @@
       <c r="Z45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+      <c r="AA45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB45" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
@@ -5455,7 +5622,7 @@
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
@@ -5463,10 +5630,10 @@
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" hidden="1">
       <c r="A46" s="16">
         <v>43</v>
       </c>
@@ -5545,8 +5712,12 @@
       <c r="Z46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
+      <c r="AA46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
@@ -5554,7 +5725,7 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -5562,10 +5733,10 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" hidden="1">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -5678,7 +5849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" hidden="1">
       <c r="A48" s="16">
         <v>45</v>
       </c>
@@ -5757,8 +5928,12 @@
       <c r="Z48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
+      <c r="AA48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
@@ -5766,18 +5941,18 @@
       <c r="AG48" s="8"/>
       <c r="AH48" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" hidden="1">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -5859,7 +6034,9 @@
       <c r="AA49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB49" s="7"/>
+      <c r="AB49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
@@ -5871,14 +6048,14 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" hidden="1">
       <c r="A50" s="16">
         <v>47</v>
       </c>
@@ -5960,7 +6137,9 @@
       <c r="AA50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AB50" s="7"/>
+      <c r="AB50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
@@ -5972,14 +6151,14 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" ht="16.5" thickBot="1">
       <c r="A51" s="16">
         <v>48</v>
       </c>
@@ -6058,8 +6237,12 @@
       <c r="Z51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
+      <c r="AA51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
@@ -6071,14 +6254,14 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -6157,8 +6340,12 @@
       <c r="Z52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
+      <c r="AA52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
@@ -6166,7 +6353,7 @@
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -6174,10 +6361,10 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A53" s="16">
         <v>50</v>
       </c>
@@ -6256,8 +6443,12 @@
       <c r="Z53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
+      <c r="AA53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB53" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
@@ -6265,7 +6456,7 @@
       <c r="AG53" s="8"/>
       <c r="AH53" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
@@ -6273,10 +6464,10 @@
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" ht="16.5" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -6355,8 +6546,12 @@
       <c r="Z54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
+      <c r="AA54" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="AC54" s="25"/>
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
@@ -6368,11 +6563,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6416,7 +6611,11 @@
       <c r="AJ55" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:AG55"/>
+  <autoFilter ref="C2:AG55">
+    <filterColumn colId="25">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A3:AI53">
     <sortCondition ref="B3"/>
   </sortState>
@@ -6425,12 +6624,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9162,7 +9361,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11949,12 +12148,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,21 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1091,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,7 +1092,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB34" sqref="AB25:AB51"/>
+      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1391,7 +1377,9 @@
       <c r="AB4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="4"/>
+      <c r="AC4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -1402,11 +1390,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:38" hidden="1">
@@ -1494,14 +1482,16 @@
       <c r="AB5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
@@ -1509,7 +1499,7 @@
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:38" hidden="1">
@@ -1597,7 +1587,9 @@
       <c r="AB6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -1608,11 +1600,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1701,7 +1693,9 @@
       <c r="AB7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
@@ -1712,14 +1706,14 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1907,14 +1901,16 @@
       <c r="AB9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC9" s="7"/>
+      <c r="AC9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1922,7 +1918,7 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:38" hidden="1">
@@ -2010,14 +2006,16 @@
       <c r="AB10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC10" s="7"/>
+      <c r="AC10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
@@ -2025,7 +2023,7 @@
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:38" hidden="1">
@@ -2113,7 +2111,9 @@
       <c r="AB11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC11" s="7"/>
+      <c r="AC11" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
@@ -2124,11 +2124,11 @@
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:38" hidden="1">
@@ -2216,14 +2216,16 @@
       <c r="AB12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
@@ -2231,7 +2233,7 @@
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:38" hidden="1">
@@ -2319,7 +2321,9 @@
       <c r="AB13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC13" s="7"/>
+      <c r="AC13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -2330,11 +2334,11 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:38" hidden="1">
@@ -2422,7 +2426,9 @@
       <c r="AB14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="7"/>
+      <c r="AC14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -2433,11 +2439,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:38" hidden="1">
@@ -2525,7 +2531,9 @@
       <c r="AB15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="7"/>
+      <c r="AC15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
@@ -2536,11 +2544,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:38" hidden="1">
@@ -2628,7 +2636,9 @@
       <c r="AB16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
@@ -2639,11 +2649,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:36" hidden="1">
@@ -2731,7 +2741,9 @@
       <c r="AB17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC17" s="7"/>
+      <c r="AC17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
@@ -2742,11 +2754,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:36" hidden="1">
@@ -2834,7 +2846,9 @@
       <c r="AB18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" s="7"/>
+      <c r="AC18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
@@ -2845,11 +2859,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:36" hidden="1">
@@ -2937,7 +2951,9 @@
       <c r="AB19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC19" s="7"/>
+      <c r="AC19" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
@@ -2948,11 +2964,11 @@
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:36" hidden="1">
@@ -3040,7 +3056,9 @@
       <c r="AB20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC20" s="7"/>
+      <c r="AC20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
@@ -3051,11 +3069,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:36" hidden="1">
@@ -3143,7 +3161,9 @@
       <c r="AB21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC21" s="7"/>
+      <c r="AC21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
@@ -3154,11 +3174,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:36" hidden="1">
@@ -3246,7 +3266,9 @@
       <c r="AB22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC22" s="7"/>
+      <c r="AC22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
@@ -3257,14 +3279,14 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -3452,7 +3474,9 @@
       <c r="AB24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC24" s="7"/>
+      <c r="AC24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
@@ -3463,14 +3487,14 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" hidden="1">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -3555,14 +3579,16 @@
       <c r="AB25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC25" s="7"/>
+      <c r="AC25" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
@@ -3570,7 +3596,7 @@
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:36" hidden="1">
@@ -3658,7 +3684,9 @@
       <c r="AB26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC26" s="7"/>
+      <c r="AC26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -3669,11 +3697,11 @@
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:36" hidden="1">
@@ -3761,7 +3789,9 @@
       <c r="AB27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC27" s="7"/>
+      <c r="AC27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
@@ -3772,11 +3802,11 @@
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:36" hidden="1">
@@ -3864,14 +3894,16 @@
       <c r="AB28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC28" s="7"/>
+      <c r="AC28" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
@@ -3879,7 +3911,7 @@
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:36" hidden="1">
@@ -3967,7 +3999,9 @@
       <c r="AB29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC29" s="7"/>
+      <c r="AC29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
@@ -3978,11 +4012,11 @@
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:36" hidden="1">
@@ -4070,14 +4104,16 @@
       <c r="AB30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC30" s="7"/>
+      <c r="AC30" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
@@ -4085,7 +4121,7 @@
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:36" hidden="1">
@@ -4173,7 +4209,9 @@
       <c r="AB31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC31" s="7"/>
+      <c r="AC31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
@@ -4184,11 +4222,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:36" hidden="1">
@@ -4276,7 +4314,9 @@
       <c r="AB32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC32" s="7"/>
+      <c r="AC32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
@@ -4287,11 +4327,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:36" hidden="1">
@@ -4379,7 +4419,9 @@
       <c r="AB33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC33" s="7"/>
+      <c r="AC33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
@@ -4390,14 +4432,14 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="16.5" thickBot="1">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -4500,7 +4542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:36" hidden="1">
+    <row r="35" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A35" s="16">
         <v>32</v>
       </c>
@@ -4585,14 +4627,16 @@
       <c r="AB35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC35" s="7"/>
+      <c r="AC35" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
@@ -4600,10 +4644,10 @@
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -4688,14 +4732,16 @@
       <c r="AB36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC36" s="7"/>
+      <c r="AC36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -4703,10 +4749,10 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A37" s="16">
         <v>34</v>
       </c>
@@ -4791,7 +4837,9 @@
       <c r="AB37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC37" s="7"/>
+      <c r="AC37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
@@ -4802,14 +4850,14 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -4894,7 +4942,9 @@
       <c r="AB38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC38" s="7"/>
+      <c r="AC38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
@@ -4905,14 +4955,14 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A39" s="16">
         <v>36</v>
       </c>
@@ -4997,7 +5047,9 @@
       <c r="AB39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" s="7"/>
+      <c r="AC39" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
@@ -5008,14 +5060,14 @@
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A40" s="16">
         <v>37</v>
       </c>
@@ -5100,7 +5152,9 @@
       <c r="AB40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC40" s="7"/>
+      <c r="AC40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -5111,14 +5165,14 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -5203,7 +5257,9 @@
       <c r="AB41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC41" s="7"/>
+      <c r="AC41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
@@ -5214,14 +5270,14 @@
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A42" s="16">
         <v>39</v>
       </c>
@@ -5306,14 +5362,16 @@
       <c r="AB42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC42" s="7"/>
+      <c r="AC42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -5321,10 +5379,10 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -5409,7 +5467,9 @@
       <c r="AB43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC43" s="7"/>
+      <c r="AC43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
@@ -5420,14 +5480,14 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A44" s="16">
         <v>41</v>
       </c>
@@ -5512,7 +5572,9 @@
       <c r="AB44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC44" s="7"/>
+      <c r="AC44" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
@@ -5523,14 +5585,14 @@
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -5615,14 +5677,16 @@
       <c r="AB45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC45" s="7"/>
+      <c r="AC45" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
@@ -5630,10 +5694,10 @@
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A46" s="16">
         <v>43</v>
       </c>
@@ -5718,7 +5782,9 @@
       <c r="AB46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC46" s="7"/>
+      <c r="AC46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
@@ -5729,14 +5795,14 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -5849,7 +5915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1">
+    <row r="48" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A48" s="16">
         <v>45</v>
       </c>
@@ -5934,7 +6000,9 @@
       <c r="AB48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC48" s="7"/>
+      <c r="AC48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
@@ -5945,14 +6013,14 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -6037,7 +6105,9 @@
       <c r="AB49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC49" s="7"/>
+      <c r="AC49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
@@ -6048,14 +6118,14 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A50" s="16">
         <v>47</v>
       </c>
@@ -6140,7 +6210,9 @@
       <c r="AB50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC50" s="7"/>
+      <c r="AC50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
@@ -6151,14 +6223,14 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" ht="16.5" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" ht="16.5" hidden="1" thickBot="1">
       <c r="A51" s="16">
         <v>48</v>
       </c>
@@ -6243,7 +6315,9 @@
       <c r="AB51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC51" s="7"/>
+      <c r="AC51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
@@ -6254,11 +6328,11 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="16.5" hidden="1" thickBot="1">
@@ -6346,14 +6420,16 @@
       <c r="AB52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC52" s="7"/>
+      <c r="AC52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -6361,7 +6437,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="16.5" hidden="1" thickBot="1">
@@ -6449,7 +6525,9 @@
       <c r="AB53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC53" s="7"/>
+      <c r="AC53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
@@ -6460,11 +6538,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" hidden="1" thickBot="1">
@@ -6552,7 +6630,9 @@
       <c r="AB54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AC54" s="25"/>
+      <c r="AC54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
       <c r="AF54" s="25"/>
@@ -6563,11 +6643,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6612,7 +6692,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C2:AG55">
-    <filterColumn colId="25">
+    <filterColumn colId="25"/>
+    <filterColumn colId="26">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
@@ -6624,12 +6705,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9361,7 +9442,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12148,12 +12229,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,7 +773,42 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1077,7 +1112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1085,14 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1182,7 +1216,7 @@
       <c r="AH2" s="39"/>
       <c r="AI2" s="39"/>
     </row>
-    <row r="3" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="3" spans="1:38" ht="16.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:38" hidden="1">
+    <row r="4" spans="1:38">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -1380,7 +1414,9 @@
       <c r="AC4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="5"/>
@@ -1390,14 +1426,14 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1485,13 +1521,15 @@
       <c r="AC5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
@@ -1499,10 +1537,10 @@
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -1590,7 +1628,9 @@
       <c r="AC6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" s="7"/>
+      <c r="AD6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="8"/>
@@ -1600,15 +1640,15 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" hidden="1">
+    <row r="7" spans="1:38">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -1696,7 +1736,9 @@
       <c r="AC7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="8"/>
@@ -1706,11 +1748,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1798,8 +1840,12 @@
       <c r="AB8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="AC8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="8"/>
@@ -1809,14 +1855,14 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -1904,13 +1950,15 @@
       <c r="AC9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD9" s="7"/>
+      <c r="AD9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1918,10 +1966,10 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -2009,7 +2057,9 @@
       <c r="AC10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD10" s="7"/>
+      <c r="AD10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="8"/>
@@ -2019,14 +2069,14 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -2114,13 +2164,15 @@
       <c r="AC11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
@@ -2128,10 +2180,10 @@
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -2219,13 +2271,15 @@
       <c r="AC12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
@@ -2233,10 +2287,10 @@
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -2324,7 +2378,9 @@
       <c r="AC13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD13" s="7"/>
+      <c r="AD13" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="8"/>
@@ -2334,14 +2390,14 @@
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -2429,7 +2485,9 @@
       <c r="AC14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD14" s="7"/>
+      <c r="AD14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="8"/>
@@ -2439,14 +2497,14 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -2534,7 +2592,9 @@
       <c r="AC15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD15" s="7"/>
+      <c r="AD15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="8"/>
@@ -2544,14 +2604,14 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -2639,7 +2699,9 @@
       <c r="AC16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD16" s="7"/>
+      <c r="AD16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="8"/>
@@ -2649,14 +2711,14 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -2744,13 +2806,15 @@
       <c r="AC17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD17" s="7"/>
+      <c r="AD17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
@@ -2758,10 +2822,10 @@
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -2849,7 +2913,9 @@
       <c r="AC18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD18" s="7"/>
+      <c r="AD18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="8"/>
@@ -2859,14 +2925,14 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -2954,13 +3020,15 @@
       <c r="AC19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD19" s="7"/>
+      <c r="AD19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -2968,10 +3036,10 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -3059,7 +3127,9 @@
       <c r="AC20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD20" s="7"/>
+      <c r="AD20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="8"/>
@@ -3069,14 +3139,14 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -3164,7 +3234,9 @@
       <c r="AC21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="8"/>
@@ -3174,14 +3246,14 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -3269,7 +3341,9 @@
       <c r="AC22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD22" s="7"/>
+      <c r="AD22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="8"/>
@@ -3279,11 +3353,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3371,8 +3445,12 @@
       <c r="AB23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
+      <c r="AC23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="8"/>
@@ -3382,14 +3460,14 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="16">
         <v>21</v>
       </c>
@@ -3477,7 +3555,9 @@
       <c r="AC24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD24" s="7"/>
+      <c r="AD24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="8"/>
@@ -3487,14 +3567,14 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -3582,7 +3662,9 @@
       <c r="AC25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD25" s="7"/>
+      <c r="AD25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="8"/>
@@ -3592,14 +3674,14 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -3687,7 +3769,9 @@
       <c r="AC26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD26" s="7"/>
+      <c r="AD26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="8"/>
@@ -3697,14 +3781,14 @@
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -3792,7 +3876,9 @@
       <c r="AC27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD27" s="7"/>
+      <c r="AD27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="8"/>
@@ -3802,14 +3888,14 @@
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -3897,13 +3983,15 @@
       <c r="AC28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD28" s="7"/>
+      <c r="AD28" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
@@ -3911,10 +3999,10 @@
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -4002,13 +4090,15 @@
       <c r="AC29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD29" s="7"/>
+      <c r="AD29" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
@@ -4016,10 +4106,10 @@
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -4107,7 +4197,9 @@
       <c r="AC30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD30" s="7"/>
+      <c r="AD30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="8"/>
@@ -4117,14 +4209,14 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="16">
         <v>28</v>
       </c>
@@ -4212,7 +4304,9 @@
       <c r="AC31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD31" s="7"/>
+      <c r="AD31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
@@ -4222,14 +4316,14 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -4317,7 +4411,9 @@
       <c r="AC32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD32" s="7"/>
+      <c r="AD32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="8"/>
@@ -4327,14 +4423,14 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33" s="16">
         <v>30</v>
       </c>
@@ -4422,7 +4518,9 @@
       <c r="AC33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD33" s="7"/>
+      <c r="AD33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="8"/>
@@ -4432,14 +4530,14 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" ht="16.5" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -4524,8 +4622,12 @@
       <c r="AB34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
+      <c r="AC34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="8"/>
@@ -4535,14 +4637,14 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="16">
         <v>32</v>
       </c>
@@ -4630,7 +4732,9 @@
       <c r="AC35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD35" s="7"/>
+      <c r="AD35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="8"/>
@@ -4640,14 +4744,14 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -4735,13 +4839,15 @@
       <c r="AC36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD36" s="7"/>
+      <c r="AD36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -4749,10 +4855,10 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="16">
         <v>34</v>
       </c>
@@ -4840,7 +4946,9 @@
       <c r="AC37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD37" s="7"/>
+      <c r="AD37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="8"/>
@@ -4850,14 +4958,14 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -4945,7 +5053,9 @@
       <c r="AC38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD38" s="7"/>
+      <c r="AD38" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="8"/>
@@ -4955,14 +5065,14 @@
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="16">
         <v>36</v>
       </c>
@@ -5050,7 +5160,9 @@
       <c r="AC39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD39" s="7"/>
+      <c r="AD39" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="8"/>
@@ -5060,14 +5172,14 @@
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="16">
         <v>37</v>
       </c>
@@ -5155,7 +5267,9 @@
       <c r="AC40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD40" s="7"/>
+      <c r="AD40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="8"/>
@@ -5165,14 +5279,14 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -5260,13 +5374,15 @@
       <c r="AC41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD41" s="7"/>
+      <c r="AD41" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
@@ -5274,10 +5390,10 @@
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="16">
         <v>39</v>
       </c>
@@ -5365,13 +5481,15 @@
       <c r="AC42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD42" s="7"/>
+      <c r="AD42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -5379,10 +5497,10 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -5470,7 +5588,9 @@
       <c r="AC43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD43" s="7"/>
+      <c r="AD43" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="8"/>
@@ -5480,14 +5600,14 @@
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44" s="16">
         <v>41</v>
       </c>
@@ -5575,7 +5695,9 @@
       <c r="AC44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD44" s="7"/>
+      <c r="AD44" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="8"/>
@@ -5585,14 +5707,14 @@
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -5680,13 +5802,15 @@
       <c r="AC45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD45" s="7"/>
+      <c r="AD45" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
@@ -5694,10 +5818,10 @@
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="16">
         <v>43</v>
       </c>
@@ -5785,13 +5909,15 @@
       <c r="AC46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD46" s="7"/>
+      <c r="AD46" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
@@ -5799,10 +5925,10 @@
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -5915,7 +6041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+    <row r="48" spans="1:36">
       <c r="A48" s="16">
         <v>45</v>
       </c>
@@ -6003,7 +6129,9 @@
       <c r="AC48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD48" s="7"/>
+      <c r="AD48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="8"/>
@@ -6013,14 +6141,14 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -6108,7 +6236,9 @@
       <c r="AC49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD49" s="7"/>
+      <c r="AD49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="8"/>
@@ -6118,14 +6248,14 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="16">
         <v>47</v>
       </c>
@@ -6213,7 +6343,9 @@
       <c r="AC50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD50" s="7"/>
+      <c r="AD50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="8"/>
@@ -6223,14 +6355,14 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="16">
         <v>48</v>
       </c>
@@ -6318,7 +6450,9 @@
       <c r="AC51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD51" s="7"/>
+      <c r="AD51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="8"/>
@@ -6328,14 +6462,14 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -6423,13 +6557,15 @@
       <c r="AC52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD52" s="7"/>
+      <c r="AD52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -6437,10 +6573,10 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="16">
         <v>50</v>
       </c>
@@ -6528,7 +6664,9 @@
       <c r="AC53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD53" s="7"/>
+      <c r="AD53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="8"/>
@@ -6538,14 +6676,14 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" ht="16.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="16.5" thickBot="1">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -6633,13 +6771,15 @@
       <c r="AC54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AD54" s="25"/>
+      <c r="AD54" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="AE54" s="25"/>
       <c r="AF54" s="25"/>
       <c r="AG54" s="26"/>
       <c r="AH54" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
@@ -6647,7 +6787,7 @@
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6693,9 +6833,7 @@
   </sheetData>
   <autoFilter ref="C2:AG55">
     <filterColumn colId="25"/>
-    <filterColumn colId="26">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="26"/>
   </autoFilter>
   <sortState ref="A3:AI53">
     <sortCondition ref="B3"/>
@@ -6705,12 +6843,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9442,7 +9580,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12229,12 +12367,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
+++ b/Табели/!Анализ выполнения задания по водителям за 2018 г..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="57">
   <si>
     <t>Ачеповский В.А.</t>
   </si>
@@ -773,42 +773,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1112,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,10 +1088,10 @@
   <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
+      <selection pane="bottomRight" activeCell="AE42" sqref="AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1417,7 +1382,9 @@
       <c r="AD4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="4"/>
+      <c r="AE4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AF4" s="4"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="9">
@@ -1426,11 +1393,11 @@
       </c>
       <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI35" si="1">COUNTIF(C4:AG4,"-")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" ref="AJ4:AJ46" si="2">SUM(AH4:AI4)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1524,12 +1491,14 @@
       <c r="AD5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="7"/>
+      <c r="AE5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF5" s="7"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" s="30">
         <f t="shared" si="1"/>
@@ -1537,7 +1506,7 @@
       </c>
       <c r="AJ5" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1631,7 +1600,9 @@
       <c r="AD6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="28">
@@ -1640,11 +1611,11 @@
       </c>
       <c r="AI6" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ6" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6"/>
     </row>
@@ -1739,7 +1710,9 @@
       <c r="AD7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE7" s="7"/>
+      <c r="AE7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="28">
@@ -1748,11 +1721,11 @@
       </c>
       <c r="AI7" s="30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ7" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1846,7 +1819,9 @@
       <c r="AD8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="7"/>
+      <c r="AE8" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="28">
@@ -1855,11 +1830,11 @@
       </c>
       <c r="AI8" s="30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ8" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1953,12 +1928,14 @@
       <c r="AD9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="7"/>
+      <c r="AE9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF9" s="7"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI9" s="30">
         <f t="shared" si="1"/>
@@ -1966,7 +1943,7 @@
       </c>
       <c r="AJ9" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2060,7 +2037,9 @@
       <c r="AD10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="7"/>
+      <c r="AE10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="28">
@@ -2069,11 +2048,11 @@
       </c>
       <c r="AI10" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ10" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2167,7 +2146,9 @@
       <c r="AD11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="28">
@@ -2176,11 +2157,11 @@
       </c>
       <c r="AI11" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ11" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2274,7 +2255,9 @@
       <c r="AD12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="28">
@@ -2283,11 +2266,11 @@
       </c>
       <c r="AI12" s="30">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2381,12 +2364,14 @@
       <c r="AD13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" s="30">
         <f t="shared" si="1"/>
@@ -2394,7 +2379,7 @@
       </c>
       <c r="AJ13" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2488,7 +2473,9 @@
       <c r="AD14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="28">
@@ -2497,11 +2484,11 @@
       </c>
       <c r="AI14" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ14" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -2595,7 +2582,9 @@
       <c r="AD15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="28">
@@ -2604,11 +2593,11 @@
       </c>
       <c r="AI15" s="30">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ15" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2702,7 +2691,9 @@
       <c r="AD16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="28">
@@ -2711,11 +2702,11 @@
       </c>
       <c r="AI16" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ16" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2809,7 +2800,9 @@
       <c r="AD17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="28">
@@ -2818,11 +2811,11 @@
       </c>
       <c r="AI17" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ17" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2916,7 +2909,9 @@
       <c r="AD18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="28">
@@ -2925,11 +2920,11 @@
       </c>
       <c r="AI18" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ18" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -3023,12 +3018,14 @@
       <c r="AD19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE19" s="7"/>
+      <c r="AE19" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI19" s="30">
         <f t="shared" si="1"/>
@@ -3036,7 +3033,7 @@
       </c>
       <c r="AJ19" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -3130,7 +3127,9 @@
       <c r="AD20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="28">
@@ -3139,11 +3138,11 @@
       </c>
       <c r="AI20" s="30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ20" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -3237,7 +3236,9 @@
       <c r="AD21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="28">
@@ -3246,11 +3247,11 @@
       </c>
       <c r="AI21" s="30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ21" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3344,7 +3345,9 @@
       <c r="AD22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="28">
@@ -3353,11 +3356,11 @@
       </c>
       <c r="AI22" s="30">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ22" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3451,7 +3454,9 @@
       <c r="AD23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="28">
@@ -3460,11 +3465,11 @@
       </c>
       <c r="AI23" s="30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ23" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3558,7 +3563,9 @@
       <c r="AD24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE24" s="7"/>
+      <c r="AE24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="28">
@@ -3567,11 +3574,11 @@
       </c>
       <c r="AI24" s="30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ24" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3665,7 +3672,9 @@
       <c r="AD25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE25" s="7"/>
+      <c r="AE25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="28">
@@ -3674,11 +3683,11 @@
       </c>
       <c r="AI25" s="30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ25" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3772,7 +3781,9 @@
       <c r="AD26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="28">
@@ -3781,11 +3792,11 @@
       </c>
       <c r="AI26" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ26" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3879,12 +3890,14 @@
       <c r="AD27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI27" s="30">
         <f t="shared" si="1"/>
@@ -3892,7 +3905,7 @@
       </c>
       <c r="AJ27" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3986,12 +3999,14 @@
       <c r="AD28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" s="7"/>
+      <c r="AE28" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF28" s="7"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI28" s="30">
         <f t="shared" si="1"/>
@@ -3999,7 +4014,7 @@
       </c>
       <c r="AJ28" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -4093,7 +4108,9 @@
       <c r="AD29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF29" s="7"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="28">
@@ -4102,11 +4119,11 @@
       </c>
       <c r="AI29" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ29" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -4200,7 +4217,9 @@
       <c r="AD30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF30" s="7"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="28">
@@ -4209,11 +4228,11 @@
       </c>
       <c r="AI30" s="30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -4307,7 +4326,9 @@
       <c r="AD31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE31" s="7"/>
+      <c r="AE31" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="28">
@@ -4316,11 +4337,11 @@
       </c>
       <c r="AI31" s="30">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ31" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -4414,7 +4435,9 @@
       <c r="AD32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF32" s="7"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="28">
@@ -4423,11 +4446,11 @@
       </c>
       <c r="AI32" s="30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ32" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4521,7 +4544,9 @@
       <c r="AD33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="28">
@@ -4530,11 +4555,11 @@
       </c>
       <c r="AI33" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ33" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4628,7 +4653,9 @@
       <c r="AD34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE34" s="7"/>
+      <c r="AE34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF34" s="7"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="28">
@@ -4637,11 +4664,11 @@
       </c>
       <c r="AI34" s="30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ34" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4735,7 +4762,9 @@
       <c r="AD35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE35" s="7"/>
+      <c r="AE35" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF35" s="7"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="28">
@@ -4744,11 +4773,11 @@
       </c>
       <c r="AI35" s="30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ35" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4842,12 +4871,14 @@
       <c r="AD36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE36" s="7"/>
+      <c r="AE36" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF36" s="7"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="28">
         <f t="shared" ref="AH36:AH54" si="3">COUNTIF(C36:AG36,"+")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI36" s="30">
         <f t="shared" ref="AI36:AI54" si="4">COUNTIF(C36:AG36,"-")</f>
@@ -4855,7 +4886,7 @@
       </c>
       <c r="AJ36" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4949,7 +4980,9 @@
       <c r="AD37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE37" s="7"/>
+      <c r="AE37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF37" s="7"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="28">
@@ -4958,11 +4991,11 @@
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ37" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -5056,12 +5089,14 @@
       <c r="AD38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE38" s="7"/>
+      <c r="AE38" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF38" s="7"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="28">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI38" s="30">
         <f t="shared" si="4"/>
@@ -5069,7 +5104,7 @@
       </c>
       <c r="AJ38" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -5163,12 +5198,14 @@
       <c r="AD39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE39" s="7"/>
+      <c r="AE39" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF39" s="7"/>
       <c r="AG39" s="8"/>
       <c r="AH39" s="28">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI39" s="30">
         <f t="shared" si="4"/>
@@ -5176,7 +5213,7 @@
       </c>
       <c r="AJ39" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -5270,7 +5307,9 @@
       <c r="AD40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE40" s="7"/>
+      <c r="AE40" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF40" s="7"/>
       <c r="AG40" s="8"/>
       <c r="AH40" s="28">
@@ -5279,11 +5318,11 @@
       </c>
       <c r="AI40" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ40" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -5377,12 +5416,14 @@
       <c r="AD41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE41" s="7"/>
+      <c r="AE41" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF41" s="7"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI41" s="30">
         <f t="shared" si="4"/>
@@ -5390,7 +5431,7 @@
       </c>
       <c r="AJ41" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -5484,12 +5525,14 @@
       <c r="AD42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE42" s="7"/>
+      <c r="AE42" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF42" s="7"/>
       <c r="AG42" s="8"/>
       <c r="AH42" s="28">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI42" s="30">
         <f t="shared" si="4"/>
@@ -5497,7 +5540,7 @@
       </c>
       <c r="AJ42" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5591,12 +5634,14 @@
       <c r="AD43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE43" s="7"/>
+      <c r="AE43" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF43" s="7"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="28">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI43" s="30">
         <f t="shared" si="4"/>
@@ -5604,7 +5649,7 @@
       </c>
       <c r="AJ43" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5698,7 +5743,9 @@
       <c r="AD44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE44" s="7"/>
+      <c r="AE44" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF44" s="7"/>
       <c r="AG44" s="8"/>
       <c r="AH44" s="28">
@@ -5707,11 +5754,11 @@
       </c>
       <c r="AI44" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ44" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5805,12 +5852,14 @@
       <c r="AD45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE45" s="7"/>
+      <c r="AE45" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF45" s="7"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="28">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI45" s="30">
         <f t="shared" si="4"/>
@@ -5818,7 +5867,7 @@
       </c>
       <c r="AJ45" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5912,7 +5961,9 @@
       <c r="AD46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF46" s="7"/>
       <c r="AG46" s="8"/>
       <c r="AH46" s="28">
@@ -5921,11 +5972,11 @@
       </c>
       <c r="AI46" s="30">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ46" s="41">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -6132,7 +6183,9 @@
       <c r="AD48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF48" s="7"/>
       <c r="AG48" s="8"/>
       <c r="AH48" s="28">
@@ -6141,11 +6194,11 @@
       </c>
       <c r="AI48" s="30">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ48" s="41">
         <f t="shared" ref="AJ48:AJ54" si="5">SUM(AH48:AI48)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -6239,7 +6292,9 @@
       <c r="AD49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF49" s="7"/>
       <c r="AG49" s="8"/>
       <c r="AH49" s="28">
@@ -6248,11 +6303,11 @@
       </c>
       <c r="AI49" s="30">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ49" s="41">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -6346,7 +6401,9 @@
       <c r="AD50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE50" s="7"/>
+      <c r="AE50" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF50" s="7"/>
       <c r="AG50" s="8"/>
       <c r="AH50" s="28">
@@ -6355,11 +6412,11 @@
       </c>
       <c r="AI50" s="30">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ50" s="41">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -6453,7 +6510,9 @@
       <c r="AD51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF51" s="7"/>
       <c r="AG51" s="8"/>
       <c r="AH51" s="28">
@@ -6462,11 +6521,11 @@
       </c>
       <c r="AI51" s="30">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ51" s="41">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -6560,12 +6619,14 @@
       <c r="AD52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE52" s="7"/>
+      <c r="AE52" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="AF52" s="7"/>
       <c r="AG52" s="8"/>
       <c r="AH52" s="28">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI52" s="30">
         <f t="shared" si="4"/>
@@ -6573,7 +6634,7 @@
       </c>
       <c r="AJ52" s="41">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -6667,7 +6728,9 @@
       <c r="AD53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE53" s="7"/>
+      <c r="AE53" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AF53" s="7"/>
       <c r="AG53" s="8"/>
       <c r="AH53" s="28">
@@ -6676,11 +6739,11 @@
       </c>
       <c r="AI53" s="30">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ53" s="41">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="16.5" thickBot="1">
@@ -6774,7 +6837,9 @@
       <c r="AD54" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AE54" s="25"/>
+      <c r="AE54" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="AF54" s="25"/>
       <c r="AG54" s="26"/>
       <c r="AH54" s="29">
@@ -6783,11 +6848,11 @@
       </c>
       <c r="AI54" s="31">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ54" s="42">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6843,12 +6908,12 @@
     <mergeCell ref="A55:AJ55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AG5">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AG54">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9580,7 +9645,7 @@
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AF53">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12367,12 +12432,12 @@
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AG4">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:AG53">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
